--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBE34D-A0EF-4B4C-9311-9B6BE83D3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4950223-B6D0-4F0F-8D10-B48581FE81F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>0#将等级提升至3级#1</t>
   </si>
   <si>
-    <t>0#Alcanza el nivel 3.#1</t>
-  </si>
-  <si>
     <t>新主线2</t>
   </si>
   <si>
@@ -94,10 +91,6 @@
 0#消灭火魔人#1</t>
   </si>
   <si>
-    <t>0#Encuentra a Malak cerca del Vacío de la Lava Pāhoehoe.#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
-0#Derrota al Ifrit.#1</t>
-  </si>
-  <si>
     <t>新主线3</t>
   </si>
   <si>
@@ -110,9 +103,6 @@
     <t>0#等待阿月再次联系你#1</t>
   </si>
   <si>
-    <t>0#Espera a que Isra se comunique contigo.#1</t>
-  </si>
-  <si>
     <t>新主线4</t>
   </si>
   <si>
@@ -125,9 +115,6 @@
     <t>0#前往西多喀那沙漠的石柱长廊#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
   </si>
   <si>
-    <t>0#Encuentra las ruinas del templo en el Desierto de West Docana.#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
-  </si>
-  <si>
     <t>新主线5</t>
   </si>
   <si>
@@ -140,9 +127,6 @@
     <t>0#前往寻找阿月#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
   </si>
   <si>
-    <t>0#Encuentra a Isra.#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
-  </si>
-  <si>
     <t>新主线6</t>
   </si>
   <si>
@@ -155,9 +139,6 @@
     <t>0#探索火魔人与大河女神的秘密#1|大河神庙银珊</t>
   </si>
   <si>
-    <t>0#Descubre los secretos del Ifrit y la Diosa del Río.#1|大河神庙银珊</t>
-  </si>
-  <si>
     <t>新主线7</t>
   </si>
   <si>
@@ -170,9 +151,6 @@
     <t>0#等待七天的时间后前往黑崖的巫师法阵#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
   </si>
   <si>
-    <t>0#Espera 7 días antes de dirigirte a los Acantilados Umbra.#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
-  </si>
-  <si>
     <t>新主线8</t>
   </si>
   <si>
@@ -185,9 +163,6 @@
     <t>0#探索火魔藏身处#1|新主线火魔结界银珊</t>
   </si>
   <si>
-    <t>0#Explora la base del Ifrit.#1|新主线火魔结界银珊</t>
-  </si>
-  <si>
     <t>新主线9</t>
   </si>
   <si>
@@ -200,9 +175,6 @@
     <t>0#想办法离开废墟世界#1|不知名火魔</t>
   </si>
   <si>
-    <t>0#Piensa en una forma de salir del dominio del Ifrit.#1|不知名火魔</t>
-  </si>
-  <si>
     <t>新主线10</t>
   </si>
   <si>
@@ -215,9 +187,6 @@
     <t>0#已收集的线索#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
   </si>
   <si>
-    <t>0#Recopila pistas.#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
-  </si>
-  <si>
     <t>新主线11</t>
   </si>
   <si>
@@ -228,9 +197,6 @@
   </si>
   <si>
     <t>0#击败三队游荡的火魔人散兵#3</t>
-  </si>
-  <si>
-    <t>0#Derrota a tres escuadrones del Ifrit.#3</t>
   </si>
   <si>
     <t>新主线12</t>
@@ -247,11 +213,6 @@
 0#检查风哭岩的河流#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
   </si>
   <si>
-    <t>0#Verifica el río en el Valle de Twinluna.#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
-0#Verifica el río en los Acantilados(Cliffs) Umbra.#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
-0#Verifica el río en Crying Rock#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
-  </si>
-  <si>
     <t>新主线13</t>
   </si>
   <si>
@@ -264,9 +225,6 @@
     <t>0#与银珊一同前去与火魔暗主谈判#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
   </si>
   <si>
-    <t>0#Continúa con Ilayda para negociar con el Maestro del Vacío del Ifrit.#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
-  </si>
-  <si>
     <t>新主线14</t>
   </si>
   <si>
@@ -279,9 +237,6 @@
     <t>0#劝说五大部落签订协议#5</t>
   </si>
   <si>
-    <t>0#Persuade a las cinco tribus a firmar un tratado.#5</t>
-  </si>
-  <si>
     <t>新主线雄鹰1</t>
   </si>
   <si>
@@ -294,9 +249,6 @@
     <t>0#说服霍驹代表雄鹰部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade a Husnu de los Nasir a firmar el tratado.#1</t>
-  </si>
-  <si>
     <t>新主线雄鹰2</t>
   </si>
   <si>
@@ -309,9 +261,6 @@
     <t>0#找到黑血水晶并交给霍驹#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Recupera el Cristal de Sangre Negra para Husnu.#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
     <t>新主线雄鹰3</t>
   </si>
   <si>
@@ -324,9 +273,6 @@
     <t>0#前往狩猎山谷，把黑血水晶交还给兽人#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Dirígete al Valle del Cazador y entrega el Cristal de Sangre Negra a los Hombres Bestia.#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
     <t>新主线雄鹰4</t>
   </si>
   <si>
@@ -339,9 +285,6 @@
     <t>0#征服其他四大部落#4</t>
   </si>
   <si>
-    <t>0#Conquista las otras cuatro tribus.#4</t>
-  </si>
-  <si>
     <t>新主线野马1</t>
   </si>
   <si>
@@ -354,9 +297,6 @@
     <t>0#说服苍骐代表野马部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade a Bahat de los Akhal a firmar el tratado.#1</t>
-  </si>
-  <si>
     <t>新主线野马2</t>
   </si>
   <si>
@@ -367,9 +307,6 @@
   </si>
   <si>
     <t>0#征服毒蝎部落#1</t>
-  </si>
-  <si>
-    <t>0#Conquista a los Dakn.#1</t>
   </si>
   <si>
     <t>新主线野马3</t>
@@ -385,10 +322,6 @@
 4#将画像交给野马王#1#银珊画像</t>
   </si>
   <si>
-    <t>0#Ve al Fuerte Redstone, el Golden Bazaar, y a Camel Bell Bazaar y coloca avisos reclutando artistas hábiles que puedan pintar un retrato.#1
-4#Entrega la pintura a Bahat.#1#银珊画像</t>
-  </si>
-  <si>
     <t>新主线野马3画师1</t>
   </si>
   <si>
@@ -399,9 +332,6 @@
   </si>
   <si>
     <t>4#收集8000乌塔并带去[%str_val:布告城市名字%]#8000#金钱</t>
-  </si>
-  <si>
-    <t>4#Recoge 8000 Utar y llévalo a [%str_val:布告城市名字%]#8000#金钱</t>
   </si>
   <si>
     <t>新主线野马3画师2</t>
@@ -417,10 +347,6 @@
 4#收集500铁石并带去[%str_val:布告城市名字%]#500#铁石</t>
   </si>
   <si>
-    <t>4#Recoge 1500 madera y llévala a [%str_val:布告城市名字%]#1500#木材
-4#Recoge 500 piedras de hierro y llévalas a [%str_val:布告城市名字%]#500#铁石</t>
-  </si>
-  <si>
     <t>新主线野马3画师3</t>
   </si>
   <si>
@@ -433,9 +359,6 @@
     <t>0#击败五队沙漠兄弟会的游荡队伍后前往[%str_val:布告城市名字%]#5</t>
   </si>
   <si>
-    <t>0#Derrota a 5 escuadrones de la Hermandad del Desierto(Desert Brotherhood) y dirígete a [%str_val:布告城市名字%]#5</t>
-  </si>
-  <si>
     <t>新主线野马4</t>
   </si>
   <si>
@@ -448,9 +371,6 @@
     <t>4#收集200玉石交给野马王苍骐#200#玉石</t>
   </si>
   <si>
-    <t>4#Recoge 200 jade para Bahat, Sultán de los Akhal.#200#玉石</t>
-  </si>
-  <si>
     <t>新主线雪狼1</t>
   </si>
   <si>
@@ -461,9 +381,6 @@
   </si>
   <si>
     <t>0#说服封凛代表雪狼部落签字#1</t>
-  </si>
-  <si>
-    <t>0#Persuade a Ruha de los Dhib a firmar el tratado.#1</t>
   </si>
   <si>
     <t>新主线雪狼2</t>
@@ -479,10 +396,6 @@
 0#将剑豪带去封凛处比试#1</t>
   </si>
   <si>
-    <t>0#Busca al Maestro de Espadas en la aldea de Piedra Caliza.#1##大雪山:11303,3799:100|雪山剑豪
-0#Lleva al Maestro de Espadas a un duelo con Ruha.#1</t>
-  </si>
-  <si>
     <t>新主线雪狼3</t>
   </si>
   <si>
@@ -495,9 +408,6 @@
     <t>0#在冰谷附近东北找到一座冰川，并在不受伤的情况下击败里面的怪物#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
   </si>
   <si>
-    <t>0#Localiza un glaciar en el borde noreste del Valle Helado(Frost). Derrota a los monstruos en su interior sin resultar herido.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
-  </si>
-  <si>
     <t>新主线毒蝎1</t>
   </si>
   <si>
@@ -510,9 +420,6 @@
     <t>0#说服阿曼莎代表毒蝎部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade a Rebiya a firmar en nombre de los Dakn.#1</t>
-  </si>
-  <si>
     <t>新主线毒蝎2</t>
   </si>
   <si>
@@ -525,9 +432,6 @@
     <t>0#前往半月山集市寻找古达#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
   </si>
   <si>
-    <t>0#Encuentra a Jihan en el Zoco de las Colinas de Media Luna.#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
-  </si>
-  <si>
     <t>新主线毒蝎3</t>
   </si>
   <si>
@@ -540,9 +444,6 @@
     <t>0#调查古达的房子的线索#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
   </si>
   <si>
-    <t>0#Investiga la casa de Jihan.#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
-  </si>
-  <si>
     <t>新主线毒蝎4</t>
   </si>
   <si>
@@ -555,9 +456,6 @@
     <t>0#找到古达并将弦萝带给阿曼莎#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
   </si>
   <si>
-    <t>0#Habla con Jihan y lleva a Dahlia de vuelta a Rebiya.#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
-  </si>
-  <si>
     <t>新主线毒蝎5</t>
   </si>
   <si>
@@ -579,9 +477,6 @@
     <t>0#说服汗卢达代表蛮牛部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade a Ludo Khan de los Thur a firmar el tratado.#1</t>
-  </si>
-  <si>
     <t>新主线蛮牛2</t>
   </si>
   <si>
@@ -594,9 +489,6 @@
     <t>0#在各地寻找线索#1</t>
   </si>
   <si>
-    <t>0#Busca pistas.#1</t>
-  </si>
-  <si>
     <t>新主线蛮牛3</t>
   </si>
   <si>
@@ -609,9 +501,6 @@
     <t>0#解决白牛的归属权#1##大雪山:-9520,9619:500|主线白牛</t>
   </si>
   <si>
-    <t>0#Resuelve la disputa sobre el yak.#1|主线白牛</t>
-  </si>
-  <si>
     <t>新主线蛮牛4</t>
   </si>
   <si>
@@ -624,9 +513,6 @@
     <t>0#告诉汗卢达你经历的事情#1</t>
   </si>
   <si>
-    <t>0#Cuéntale tu historia a Ludo Khan.#1</t>
-  </si>
-  <si>
     <t>新主线15</t>
   </si>
   <si>
@@ -639,9 +525,6 @@
     <t>0#击败五队四处入侵沙扎尔的火魔人战团并打听出有用的线索#5</t>
   </si>
   <si>
-    <t>0#Derrota a cinco escuadrones del Ifrit que invaden Salzaar y recopila cualquier información disponible.#5</t>
-  </si>
-  <si>
     <t>新主线16</t>
   </si>
   <si>
@@ -654,9 +537,6 @@
     <t>0#前往火魔之地寻找火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
-    <t>0#Viaja al dominio del Ifrit y encuentra la base del Maestro del Vacío del Ifrit.#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
     <t>新主线17</t>
   </si>
   <si>
@@ -669,9 +549,6 @@
     <t>0#探索花圃并离开#1|trigger:大主线新版1309</t>
   </si>
   <si>
-    <t>0#Explora el jardín y luego retírate.#1|trigger:大主线新版1309</t>
-  </si>
-  <si>
     <t>新主线18</t>
   </si>
   <si>
@@ -684,9 +561,6 @@
     <t>0#前往火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
-    <t>0#Regresa a los Cuarteles de Fuego para hablar con el Maestro del Vacío del Ifrit.#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
     <t>新主线19</t>
   </si>
   <si>
@@ -702,9 +576,6 @@
     <t>0#击败霍翎#1</t>
   </si>
   <si>
-    <t>0#Derrota a Olum.#1</t>
-  </si>
-  <si>
     <t>新主线千年前</t>
   </si>
   <si>
@@ -715,9 +586,6 @@
   </si>
   <si>
     <t>0#弄清楚自己身处何处#1</t>
-  </si>
-  <si>
-    <t>0#Descubre dónde te encuentras.#1</t>
   </si>
   <si>
     <t>新主线千年前1</t>
@@ -733,10 +601,6 @@
 0#找到阿力#1</t>
   </si>
   <si>
-    <t>0#Encuentra a Little Hewez.#1
-0#Encuentra a Ali.#1</t>
-  </si>
-  <si>
     <t>新主线千年前2</t>
   </si>
   <si>
@@ -749,9 +613,6 @@
     <t>0#运送栅栏#1|木工</t>
   </si>
   <si>
-    <t>0#Transporta la cerca.#1|木工</t>
-  </si>
-  <si>
     <t>新主线千年前3</t>
   </si>
   <si>
@@ -764,9 +625,6 @@
     <t>0#在树林里为她找到三颗发光的蘑菇#3</t>
   </si>
   <si>
-    <t>0#Encuentra tres setas brillantes para ella en el bosque.#3</t>
-  </si>
-  <si>
     <t>新主线千年前4</t>
   </si>
   <si>
@@ -777,9 +635,6 @@
   </si>
   <si>
     <t>0#前往河岸保护大河女神#1|新主线结局大河女神河边</t>
-  </si>
-  <si>
-    <t>0#Protege a la Diosa del Río a lo largo de la orilla del río.#1|新主线结局大河女神河边</t>
   </si>
   <si>
     <t>新主线20</t>
@@ -795,290 +650,427 @@
 0#击败黑火#1</t>
   </si>
   <si>
-    <t>0#Regresa a la base del Maestro del Vacío del Ifrit y encuentra el portal al reino de la Llama de Obsidiana.#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
-0#Derrota a la Llama de Obsidiana.#1</t>
-  </si>
-  <si>
-    <t>Guarida del Ifrit</t>
-  </si>
-  <si>
-    <t>Mujer misteriosa</t>
-  </si>
-  <si>
-    <t>Llamada de ayuda</t>
-  </si>
-  <si>
-    <t>La Promesa de Isra</t>
-  </si>
-  <si>
-    <t>El Secreto</t>
-  </si>
-  <si>
     <t>Arcanistas</t>
   </si>
   <si>
-    <t>Ifrit oculto</t>
-  </si>
-  <si>
-    <t>Dominio del Fuego</t>
-  </si>
-  <si>
-    <t>La verdad</t>
-  </si>
-  <si>
-    <t>Rastros</t>
-  </si>
-  <si>
-    <t>A lo largo del río</t>
-  </si>
-  <si>
-    <t>Negociaciones</t>
-  </si>
-  <si>
-    <t>En el abismo</t>
-  </si>
-  <si>
-    <t>En el abismo - El Nasir</t>
-  </si>
-  <si>
-    <t>En el Abismo - Cristal de Sangre Negra</t>
-  </si>
-  <si>
-    <t>En el abismo - Derechos restaurados</t>
-  </si>
-  <si>
-    <t>En el abismo - Conquista</t>
-  </si>
-  <si>
-    <t>En el abismo - El Akhal</t>
-  </si>
-  <si>
-    <t>En el abismo - Venganza</t>
-  </si>
-  <si>
-    <t>En el abismo - Tinta divina</t>
-  </si>
-  <si>
-    <t>En el abismo - Utar</t>
-  </si>
-  <si>
-    <t>En el abismo - Recursos</t>
-  </si>
-  <si>
-    <t>En el abismo - Hermandad del desierto</t>
-  </si>
-  <si>
-    <t>En el abismo - Minerales</t>
-  </si>
-  <si>
-    <t>En lo más profundo - El Dhib</t>
-  </si>
-  <si>
-    <t>En el abismo - Maestro de la espada</t>
-  </si>
-  <si>
-    <t>En el abismo - Impecable</t>
-  </si>
-  <si>
-    <t>En el abismo - El Dakn</t>
-  </si>
-  <si>
-    <t>En el abismo - Jihan</t>
-  </si>
-  <si>
-    <t>En lo más profundo del abismo - Casa embrujada</t>
-  </si>
-  <si>
-    <t>En el abismo - Dahlia</t>
-  </si>
-  <si>
-    <t>En lo más profundo del abismo - Reina de los Dakn</t>
-  </si>
-  <si>
-    <t>En el abismo - El jueves</t>
-  </si>
-  <si>
-    <t>En el abismo - Compromiso</t>
-  </si>
-  <si>
-    <t>En el abismo - Yak Off</t>
-  </si>
-  <si>
-    <t>En lo más profundo del abismo - La obsesión de Ludo Khan</t>
-  </si>
-  <si>
     <t>Traidor</t>
   </si>
   <si>
-    <t>Maestro del Vacío Ifrit</t>
-  </si>
-  <si>
-    <t>Jardín de Rosas Blancas</t>
-  </si>
-  <si>
-    <t>Negociaciones finales</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Escondite</t>
-  </si>
-  <si>
-    <t>Cerca</t>
-  </si>
-  <si>
-    <t>Mujer Ifrit</t>
-  </si>
-  <si>
-    <t>Ríos y Diosas</t>
-  </si>
-  <si>
-    <t>Duelo de Destinos</t>
-  </si>
-  <si>
-    <t>Conociste a Malak e Isra, dos eruditos que fueron atacados por extraños monstruos. Te dijeron que muchos seres como esos, los Ifrit, deambulan por las tierras de Salzaar. Debes volverte más fuerte para protegerte a ti mismo</t>
-  </si>
-  <si>
-    <t>Después de repetidas solicitudes de Malak, decides ayudarlo a obtener acceso a la guarida del Ifrit en el Vacío de Lava Pāhoehoe, ubicado al sur de Redstone Keep. ¡Destruye al Ifrit!</t>
-  </si>
-  <si>
-    <t>Isra apareció y te salvó del gigante Ifrit justo cuando estabas tocando la puerta de la muerte. ¿Cómo pudo haber derrotado a un monstruo tan poderoso? El misterio rodea a esta mujer. Isra se pondrá en contacto contigo en unos días</t>
-  </si>
-  <si>
-    <t>Escuchaste el llamado de ayuda de Isra cuando recogiste una piedra encantada en el desierto. Parece que ella está en peligro. ¡Dirígete a las ruinas del templo en el Desierto de Docana Oeste y sálvala!</t>
-  </si>
-  <si>
-    <t>Isra te pidió que la encuentres &lt;color=red&gt;al norte de Agadir en el Valle de Twinluna&lt;/color&gt;. Ella tiene muchas cosas geniales para compartir contigo</t>
-  </si>
-  <si>
-    <t>Explora el templo con Ilayda y descubre los secretos de la Diosa del Río y el Ifrit</t>
-  </si>
-  <si>
-    <t>Ilayda habla de un asentamiento oculto al sur de Fleur en los Acantilados de Umbra, donde los Arcanistas, un grupo de antiguos magos de la Ciudad de Jamal, están lanzando un círculo arcano para atraer al Maestro del Vacío Ifrit. Su tarea se completará después de 15 días</t>
-  </si>
-  <si>
-    <t>Los Arcanistas han abierto una barrera hacia la base del Maestro del Vacío Ifrit. Ha llegado el momento de entrar y buscar rastros del Maestro del Vacío Ifrit con Ilayda. ¡No te dejes atrapar por el Ifrit!</t>
-  </si>
-  <si>
-    <t>El Maestro del Vacío Ifrit te lanzó a otra dimensión con sus poderes arcanos. Ilayda no se encuentra en ninguna parte. ¡Piensa en una forma de encontrarla y salir de aquí!</t>
-  </si>
-  <si>
-    <t>Tú y Ilayda necesitan rastrear a los Arcanistas. ¿Qué les sucedió mientras estabas ausente? Se les escuchó por última vez en el camino hacia las Montañas Zagros en los Acantilados de la Umbra. Dirígete a la &lt;color=red&gt;zona más oriental de los Acantilados de la Umbra&lt;/color&gt; para investigar</t>
-  </si>
-  <si>
-    <t>A medida que la barrera se desintegra, &lt;color=red&gt;hordas de Ifrit&lt;/color&gt; invaden el reino de los hombres para saquear y saquear. Síguelos de cerca, podrían saber algo sobre el Maestro del Vacío Ifrit</t>
-  </si>
-  <si>
-    <t>El Ifrit que capturaste dijo que la entrada al campamento del Maestro del Vacío Ifrit está oculta en una ubicación secreta junto a un río. El río fluye a través del Valle de Twinluna, la Roca Llorona y los Acantilados de Umbra. Tal vez las tabernas en estas áreas puedan compartir rumores sobre los Ifrit</t>
-  </si>
-  <si>
-    <t>Tú y Ilayda han encontrado el escondite del Ifrit cerca de una cascada cerca de la Roca Llorona. El Maestro del Vacío Ifrit está sorprendentemente desprevenido ante tu llegada. Mientras el corazón de Ilayda está lleno de dudas, ella elige acercarse pacíficamente para negociar con él</t>
-  </si>
-  <si>
-    <t>Ilayda ha comenzado su viaje hacia las Montañas Ilyas para cumplir su acuerdo con el Maestro del Vacío Ifrit. Tu tarea puede ser más difícil: persuadir a las cinco tribus para que firmen un tratado con los Ifrit y ayudarles en su migración hacia las Montañas Ilyas</t>
-  </si>
-  <si>
-    <t>Debes encontrar a Husnu, el Sultán de los Nasir, y persuadirlo para que firme el tratado</t>
-  </si>
-  <si>
-    <t>Husnu espera que lo ayudes a rastrear un tesoro legendario: el Cristal Sangre Negra. &lt;color=red&gt;Tal vez una taberna cercana haya escuchado rumores sobre el cristal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Husnu, por precaución, no quiere quedarse con el Cristal Sangre Negra para sí mismo. Un tesoro tan disputado pertenece a sus legítimos dueños: los Hombres Bestia del Valle del Cazador</t>
-  </si>
-  <si>
-    <t>Prometiste a Husnu que conquistarías a las otras cuatro tribus para ayudar a Nasir a tomar su lugar como amos de esta tierra</t>
-  </si>
-  <si>
-    <t>Debes encontrar a Bahat, Sultán de Akhal, y persuadirlo para que firme el tratado</t>
-  </si>
-  <si>
-    <t>Bahat, el Akhal Sultan, está dispuesto a firmar el tratado bajo una condición: ¡debes destruir a los Dakn!</t>
-  </si>
-  <si>
-    <t>Bahat, el Akhal Sultan, tiene una solicitud y firmará el tratado si la cumples. Todo lo que él quiere es un retrato recién pintado y deslumbrante de la Princesa Ilayda</t>
-  </si>
-  <si>
-    <t>El pintor que encontraste requiere una comisión de 8000 Utar</t>
-  </si>
-  <si>
-    <t>El pintor que encontraste requiere una comisión de 1500 madera y 500 piedra de hierro</t>
-  </si>
-  <si>
-    <t>El pintor espera que castigues a la Hermandad del Desierto por desperdiciar su tiempo</t>
-  </si>
-  <si>
-    <t>Bahat, el Sultán de los Akhal, espera 200 Jade para su firma en tu tratado con los Ifrit</t>
-  </si>
-  <si>
-    <t>Debes encontrar a Ruha, Guerrero de las Montañas Zagros, y persuadirlo para que firme el tratado en nombre de los Dhib</t>
-  </si>
-  <si>
-    <t>Ruha quiere luchar contra el oponente de sus sueños, un espadachín legendario que se hace llamar el Maestro de la Espada. Solo entonces firmará tu tratado</t>
-  </si>
-  <si>
-    <t>El espadachín irá contigo si puedes demostrar que eres digno. Debes derrotar a un monstruo de pura maldad sin un solo rasguño</t>
-  </si>
-  <si>
-    <t>Debes encontrar a Rebiya, Reina de los Dakn, y persuadirla para que firme el tratado</t>
-  </si>
-  <si>
-    <t>Rebiya está buscando a una mujer llamada Dahlia. Si alguien sabe dónde está, será Jihan, una comerciante en el Bazar de las Colinas de Media Luna</t>
-  </si>
-  <si>
-    <t>Jihan ha expresado sus condiciones: necesita tu ayuda para investigar una sombra espeluznante en su casa</t>
-  </si>
-  <si>
-    <t>Jihan ha llevado a Dahlia al &lt;color=red&gt;bosque junto al lago, al norte del Bazar de Halfmoon Hills en el Valle de Twinluna&lt;/color&gt;. Llévala de vuelta a Rebiya</t>
-  </si>
-  <si>
-    <t>Rompió su acuerdo con Rebiya para salvar a Dahlia. El único camino a seguir es conquistar el Dakn usted mismo y firmar el tratado en su nombre</t>
-  </si>
-  <si>
-    <t>Debes encontrar a Ludo Khan, líder de los Thur y señor del pantano, para persuadirlo de que firme el tratado</t>
-  </si>
-  <si>
-    <t>Descubre si Ludo Khan, Sultán de los Thur y Señor del Pantano, está dispuesto a firmar un acuerdo. Puede ser una buena idea &lt;color=red&gt;discutir este asunto con otros líderes de los Thur y propietarios de tabernas.&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Conociste a una joven mujer, tal vez la Princesa Thur, en Frost Valley. Ella espera que la ayudes a resolver un asunto de gran urgencia: tres hombres están discutiendo sobre quién es el legítimo dueño de un yak blanco y esponjoso que deambuló por sus colinas</t>
-  </si>
-  <si>
-    <t>La joven mujer en Frost Valley confesó su verdadera identidad a ti y te dio un pequeño obsequio: una calabaza de jade. Intenta dársela a Ludo Khan para ver si ayuda a suavizar las cosas</t>
-  </si>
-  <si>
-    <t>Firmaste un tratado con las cinco tribus, ¡pero el Maestro del Vacío Ifrit rompió su palabra y atrapó a Ilayda en las Montañas Ilyas! Los Ifrit están invadiendo Salzaar, y el tratado en el que tanto tiempo invertiste en firmar ahora no es más que un pedazo de pergamino sin valor. Interroga a un &lt;color=red&gt;Batallón Ifrit&lt;/color&gt; para encontrar la ubicación de Ilayda. Pueden encontrarse en muchos lugares, pero muchos se congregan en el &lt;color=red&gt;Dominio Ifrit&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>El Maestro del Vacío Ifrit ya ha lanzado su campaña contra la humanidad. Encuéntralo y persuádelo para que libere a Ilayda</t>
-  </si>
-  <si>
-    <t>Fuiste engañado por los trucos del Maestro del Vacío Ifrit y despertaste para encontrarte en el jardín de Riq</t>
-  </si>
-  <si>
-    <t>Aunque el Ifrit rompió su acuerdo y atacó a la humanidad, Ilayda está dispuesta a intentar convencerlos una última vez</t>
-  </si>
-  <si>
-    <t>Hay alguien aún más malvado que el Maestro del Vacío Ifrit, y ahora está frente a ti. Te enfrentas a Olum, quien parece no ser mayor que un niño</t>
-  </si>
-  <si>
-    <t>Tomaste un golpe para peor durante tu batalla con Olum y te desmayaste. Al despertar, te das cuenta de que no tienes idea de dónde estás</t>
-  </si>
-  <si>
-    <t>Ayuda a Little Jarah a encontrar a los otros dos niños</t>
-  </si>
-  <si>
-    <t>Ayuda a Ghazi a transportar algo de madera hacia el sur y ayuda a construir una cerca para proteger la ciudad del Ifrit</t>
-  </si>
-  <si>
-    <t>Te encuentras con una Ifrit hembra alimentando a sus hijos. Ella no está dispuesta a hacer daño a los humanos</t>
-  </si>
-  <si>
-    <t>Despiertas nuevamente para descubrir que los Ifrit han esclavizado a la humanidad y que la Diosa del Río está en grave peligro. ¡Protégela!</t>
-  </si>
-  <si>
-    <t>Despiertas de recuerdos de un milenio con el conocimiento de la fuerza que ha estado detrás de todo esto: la Llama de Obsidiana, torcedora del destino y el destino. Solo tú y Ilayda tienen el poder de derrotarlo. ¡Ahora es el momento de restaurar el orden en Salzaar!</t>
+    <t>Covil do Ifrit</t>
+  </si>
+  <si>
+    <t>Mulher misteriosa</t>
+  </si>
+  <si>
+    <t>Pedir ajuda</t>
+  </si>
+  <si>
+    <t>A Promessa de Isra</t>
+  </si>
+  <si>
+    <t>O segredo</t>
+  </si>
+  <si>
+    <t>ifrit escondido</t>
+  </si>
+  <si>
+    <t>Domínio do Fogo</t>
+  </si>
+  <si>
+    <t>A verdade</t>
+  </si>
+  <si>
+    <t>Vestígios</t>
+  </si>
+  <si>
+    <t>Ao longo do rio</t>
+  </si>
+  <si>
+    <t>Palestras</t>
+  </si>
+  <si>
+    <t>No abismo</t>
+  </si>
+  <si>
+    <t>No abismo - El Nasir</t>
+  </si>
+  <si>
+    <t>Para o Abismo - Cristal de Sangue Negro</t>
+  </si>
+  <si>
+    <t>Para o abismo - Direitos restaurados</t>
+  </si>
+  <si>
+    <t>Para o Abismo - Conquista</t>
+  </si>
+  <si>
+    <t>No Abismo - El Akhal</t>
+  </si>
+  <si>
+    <t>No abismo - Vingança</t>
+  </si>
+  <si>
+    <t>Para o Abismo - Tinta Divina</t>
+  </si>
+  <si>
+    <t>No abismo - Utar</t>
+  </si>
+  <si>
+    <t>Para o Abismo - Recursos</t>
+  </si>
+  <si>
+    <t>Para o Abismo - Irmandade do Deserto</t>
+  </si>
+  <si>
+    <t>Para o abismo - Minerais</t>
+  </si>
+  <si>
+    <t>Nas profundezas - El Dhib</t>
+  </si>
+  <si>
+    <t>Para o Abismo - Mestre da Espada</t>
+  </si>
+  <si>
+    <t>No abismo - impecável</t>
+  </si>
+  <si>
+    <t>No abismo - The Dakn</t>
+  </si>
+  <si>
+    <t>Para o abismo - Jihan</t>
+  </si>
+  <si>
+    <t>Nas profundezas do abismo - Casa assombrada</t>
+  </si>
+  <si>
+    <t>Para o abismo - Dália</t>
+  </si>
+  <si>
+    <t>Nas profundezas do abismo - Rainha do Dakn</t>
+  </si>
+  <si>
+    <t>No abismo - quinta-feira</t>
+  </si>
+  <si>
+    <t>No abismo - Compromisso</t>
+  </si>
+  <si>
+    <t>Para o abismo - Yak Off</t>
+  </si>
+  <si>
+    <t>Nas profundezas do abismo - a obsessão de Ludo Khan</t>
+  </si>
+  <si>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Jardim de Rosas Brancas</t>
+  </si>
+  <si>
+    <t>Negociações finais</t>
+  </si>
+  <si>
+    <t>Dúvida</t>
+  </si>
+  <si>
+    <t>Esconderijo</t>
+  </si>
+  <si>
+    <t>Aproximar</t>
+  </si>
+  <si>
+    <t>Mulher Ifrit</t>
+  </si>
+  <si>
+    <t>Rios e Deusas</t>
+  </si>
+  <si>
+    <t>Duelo de destinos</t>
+  </si>
+  <si>
+    <t>Você conheceu Malak e Isra, dois estudiosos que foram atacados por monstros estranhos. Disseram a você que muitos seres como estes, os Ifrit, vagam pelas terras de Salzaar. Você deve se tornar mais forte para se proteger</t>
+  </si>
+  <si>
+    <t>Após repetidos pedidos de Malak, você decide ajudá-lo a obter acesso ao covil do Ifrit no Pāhoehoe Lava Void, localizado ao sul de Redstone Keep. Destrua o Ifrit!</t>
+  </si>
+  <si>
+    <t>Isra apareceu e salvou você do gigante Ifrit no momento em que você estava batendo às portas da morte. Como ele poderia ter derrotado um monstro tão poderoso? O mistério envolve esta mulher. Isra entrará em contato com você em alguns dias</t>
+  </si>
+  <si>
+    <t>Você ouviu o pedido de ajuda de Isra quando pegou uma pedra encantada no deserto. Parece que ela está em perigo. Vá para as ruínas do templo no Deserto de West Docana e salve-a!</t>
+  </si>
+  <si>
+    <t>Isra pediu para você encontrá-la &lt;color=red&gt;ao norte de Agadir, no Vale Twinluna&lt;/color&gt;. Ela tem muitas coisas boas para compartilhar com você.</t>
+  </si>
+  <si>
+    <t>Explore o templo com Ilayda e descubra os segredos da Deusa do Rio e do Ifrit</t>
+  </si>
+  <si>
+    <t>Ilayda conta sobre um assentamento escondido ao sul de Fleur, nos Penhascos Umbra, onde os Arcanistas, um grupo de antigos magos da cidade de Jamal, estão lançando um círculo arcano para atrair o Mestre do Vazio Ifrit. Sua tarefa será concluída após 15 dias</t>
+  </si>
+  <si>
+    <t>Os Arcanistas abriram uma barreira para a base do Mestre do Vazio Ifrit. Chegou a hora de entrar e procurar vestígios do Mestre do Vazio Ifrit com Ilayda. Não seja pego pelo Ifrit!</t>
+  </si>
+  <si>
+    <t>O Void Master Ifrit lançou você em outra dimensão com seus poderes arcanos. Ilayda não foi encontrada em lugar nenhum. Pense em uma maneira de encontrá-la e saia daqui!</t>
+  </si>
+  <si>
+    <t>Você e Ilayda precisam rastrear os Arcanistas. O que aconteceu com eles enquanto você estava fora? Eles foram ouvidos pela última vez na estrada para as Montanhas Zagros, nos Penhascos Umbra. Vá para a &lt;color=red&gt;área mais oriental dos Penhascos Umbra&lt;/color&gt; para investigar.</t>
+  </si>
+  <si>
+    <t>À medida que a barreira se desintegra, &lt;color=red&gt;hordas de Ifrit&lt;/color&gt; invadem o reino dos homens para saquear e saquear. Siga-os de perto, eles podem saber algo sobre o Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>O Ifrit que você capturou disse que a entrada do acampamento do Mestre do Vazio Ifrit está escondida em um local secreto próximo a um rio. O rio flui através do Vale Twinluna, Weeping Rock e dos Penhascos Umbra. Talvez as tabernas nestas áreas possam partilhar rumores sobre o Ifrit</t>
+  </si>
+  <si>
+    <t>Você e Ilayda encontraram o esconderijo do Ifrit perto de uma cachoeira perto de Weeping Rock. Void Master Ifrit está surpreendentemente despreparado para sua chegada. Embora o coração de Ilayda esteja cheio de dúvidas, ela opta por abordá-lo pacificamente para negociar com ele.</t>
+  </si>
+  <si>
+    <t>Ilayda começou sua jornada em direção às Montanhas Ilyas para cumprir seu acordo com o Mestre do Vazio Ifrit. Sua tarefa pode ser mais difícil: persuadir as cinco tribos a assinar um tratado com os Ifrit e ajudá-los na migração para as Montanhas Ilyas.</t>
+  </si>
+  <si>
+    <t>Você deve encontrar Husnu, o Sultão de Nasir, e persuadi-lo a assinar o tratado.</t>
+  </si>
+  <si>
+    <t>Husnu espera que você o ajude a encontrar um tesouro lendário: o Cristal de Sangue Negro. &lt;color=red&gt;Talvez uma taverna próxima tenha ouvido rumores sobre o cristal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Husnu, por cautela, não quer ficar com o Cristal de Sangue Negro para si. Um tesouro tão disputado pertence aos seus legítimos proprietários: os Homens-Besta de Hunter's Valley.</t>
+  </si>
+  <si>
+    <t>Você prometeu a Husnu que conquistaria as outras quatro tribos para ajudar Nasir a tomar seu lugar como senhor desta terra.</t>
+  </si>
+  <si>
+    <t>Você deve encontrar Bahat, Sultão de Akhal, e persuadi-lo a assinar o tratado.</t>
+  </si>
+  <si>
+    <t>Bahat, o Sultão Akhal, está disposto a assinar o tratado com uma condição: você deve destruir o Dakn!</t>
+  </si>
+  <si>
+    <t>Bahat, o Sultão Akhal, tem um pedido e assinará o tratado se você o cumprir. Tudo o que ele quer é um retrato deslumbrante e recém-pintado da Princesa Ilayda.</t>
+  </si>
+  <si>
+    <t>O pintor que você encontrou exige uma comissão de 8.000 Utar</t>
+  </si>
+  <si>
+    <t>O pintor que você encontrou exige uma comissão de 1.500 madeiras e 500 pedras de ferro</t>
+  </si>
+  <si>
+    <t>O pintor espera que você puna a Irmandade do Deserto por desperdiçar seu tempo</t>
+  </si>
+  <si>
+    <t>Bahat, o Sultão de Akhal, aguarda 200 Jade para assinar seu tratado com o Ifrit</t>
+  </si>
+  <si>
+    <t>Você deve encontrar Ruha, Guerreiro das Montanhas Zagros, e persuadi-lo a assinar o tratado em nome do Dhib.</t>
+  </si>
+  <si>
+    <t>Ruha quer lutar contra o oponente dos seus sonhos, um espadachim lendário que se autodenomina Mestre da Espada. Só então ele assinará seu tratado</t>
+  </si>
+  <si>
+    <t>O espadachim irá com você se você provar que é digno. Você deve derrotar um monstro de pura maldade sem um único arranhão</t>
+  </si>
+  <si>
+    <t>Você deve encontrar Rebiya, Rainha dos Dakn, e persuadi-la a assinar o tratado.</t>
+  </si>
+  <si>
+    <t>Rebiya está procurando uma mulher chamada Dahlia. Se alguém sabe onde está, será Jihan, um comerciante do Crescent Hills Bazaar.</t>
+  </si>
+  <si>
+    <t>Jihan expressou suas condições: ele precisa da sua ajuda para investigar uma sombra assustadora em sua casa</t>
+  </si>
+  <si>
+    <t>Jihan levou Dahlia para a &lt;color=red&gt;floresta à beira do lago, ao norte do Bazar Halfmoon Hills, no Vale Twinluna&lt;/color&gt;. Leve-a de volta para Rebiya</t>
+  </si>
+  <si>
+    <t>Ele quebrou o acordo com Rebiya para salvar Dahlia. O único caminho a seguir é conquistar você mesmo o Dakn e assinar o tratado em seu nome.</t>
+  </si>
+  <si>
+    <t>Você deve encontrar Ludo Khan, líder dos Thur e senhor do pântano, para persuadi-lo a assinar o tratado</t>
+  </si>
+  <si>
+    <t>Descubra se Ludo Khan, Sultão de Thur e Senhor do Pântano, está disposto a assinar um acordo. Pode ser uma boa ideia &lt;color=red&gt;discutir este assunto com outros líderes Thur e donos de tavernas.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Você conheceu uma jovem, talvez a Princesa Thur, em Frost Valley. Ela espera que você a ajude a resolver um assunto de grande urgência: três homens estão discutindo sobre quem é o legítimo proprietário de um iaque branco e fofo que vagou pelas colinas.</t>
+  </si>
+  <si>
+    <t>jovem de Frost Valley confessou sua verdadeira identidade para você e lhe deu um pequeno presente: uma cabaça de jade. Experimente entregá-lo a Ludo Khan para ver se isso ajuda a acalmar as coisas.</t>
+  </si>
+  <si>
+    <t>Você assinou um tratado com as cinco tribos, mas o Mestre do Vazio Ifrit quebrou sua palavra e prendeu Ilayda nas Montanhas Ilyas! Os Ifrit estão invadindo Salzaar, e o tratado que você passou tanto tempo assinando agora não passa de um pedaço de pergaminho sem valor. Interrogue um &lt;color=red&gt;Batalhão Ifrit&lt;/color&gt; para descobrir a localização de Ilayda. Eles podem ser encontrados em muitos lugares, mas muitos se reúnem no &lt;color=red&gt;Domínio Ifrit&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>O Void Master Ifrit já lançou sua campanha contra a humanidade. Encontre-o e convença-o a libertar Ilayda</t>
+  </si>
+  <si>
+    <t>Você foi enganado pelos truques do Mestre do Vazio Ifrit e acordou no jardim de Riq.</t>
+  </si>
+  <si>
+    <t>Embora o Ifrit tenha quebrado o acordo e atacado a humanidade, Ilayda está disposta a tentar convencê-los uma última vez.</t>
+  </si>
+  <si>
+    <t>Há alguém ainda mais malvado do que o Mestre do Vazio Ifrit, e agora ele está na sua frente. Você confronta Olum, que parece não ter mais que uma criança.</t>
+  </si>
+  <si>
+    <t>Você sofreu um golpe para pior durante sua batalha com Olum e desmaiou. Ao acordar, você percebe que não tem ideia de onde está.</t>
+  </si>
+  <si>
+    <t>Ajude o pequeno Jarah a encontrar as outras duas crianças</t>
+  </si>
+  <si>
+    <t>Ajude Ghazi a transportar um pouco de madeira para o sul e ajude a construir uma cerca para proteger a cidade do Ifrit</t>
+  </si>
+  <si>
+    <t>Você encontra uma Ifrit fêmea alimentando seus filhos. Ela não está disposta a prejudicar humanos</t>
+  </si>
+  <si>
+    <t>Você acorda novamente e descobre que os Ifrit escravizaram a humanidade e que a Deusa do Rio está em grave perigo. Proteja ela!</t>
+  </si>
+  <si>
+    <t>Você desperta das memórias de um milênio com o conhecimento da força que está por trás de tudo: a Chama Obsidiana, o tornado do destino. Só você e Ilayda têm o poder de derrotá-lo. Agora é a hora de restaurar a ordem em Salzaar!</t>
+  </si>
+  <si>
+    <t>0#Alcance o nível 3.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Malak perto do Vazio de Lava Pāhoehoe.#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦 0#Derrote o Ifrit.#1</t>
+  </si>
+  <si>
+    <t>0#Espere que Isra entre em contato com você.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre as ruínas do templo no Deserto de Docana Ocidental.#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
+  </si>
+  <si>
+    <t>0#Encontre Isra.#1##沙盒双月山谷:-2594.5573:500|双月山谷入口银珊</t>
+  </si>
+  <si>
+    <t>0#Descubra os segredos do Ifrit e da Deusa do Rio.#1|大河神庙银珊</t>
+  </si>
+  <si>
+    <t>0#Espere 7 dias antes de ir para os Penhascos Umbra.#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
+  </si>
+  <si>
+    <t>0#Explore a base Ifrit.#1|新主线火魔结界银珊</t>
+  </si>
+  <si>
+    <t>0#Pense em uma maneira de sair do domínio do Ifrit.#1|不知名火魔</t>
+  </si>
+  <si>
+    <t>0#Colete pistas.#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
+  </si>
+  <si>
+    <t>0#Derrote três esquadrões Ifrit.#3</t>
+  </si>
+  <si>
+    <t>0#Verifique o rio no Vale Twinluna.#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流 0#Verifique o rio nos Penhascos Umbra.盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流 0#Verifique o rio em Crying Rock#1##沙盒风哭岩:-2344,6484:500 | Chest:新主线风哭岩河流</t>
+  </si>
+  <si>
+    <t>0#Continue com Ilayda para negociar com o Ifrit Void Master.#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
+  </si>
+  <si>
+    <t>0#Persuadir as cinco tribos a assinar um tratado.#5</t>
+  </si>
+  <si>
+    <t>0#Persuadir Husnu dos Nasir a assinar o tratado.#1</t>
+  </si>
+  <si>
+    <t>0#Recupere o Cristal de Sangue Negro para Husnu.#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Vá para o Vale dos Caçadores e entregue o Cristal de Sangue Negro aos Homens-Besta.#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Conquiste as outras quatro tribos.#4</t>
+  </si>
+  <si>
+    <t>0#Persuadir Bahat de Akhal a assinar o tratado.#1</t>
+  </si>
+  <si>
+    <t>0#Conquiste o Mal.#1</t>
+  </si>
+  <si>
+    <t>0#Vá ao Redstone Fort, ao Golden Bazaar e ao Camel Bell Bazaar e coloque anúncios recrutando artistas qualificados que possam pintar um retrato.#1 4#Entregue a pintura para Bahat.#1#银珊画像</t>
+  </si>
+  <si>
+    <t>4#Colete 8.000 Utar e leve-o para [%str_val:布告城市名字%]#8000#金钱</t>
+  </si>
+  <si>
+    <t>4#Colete 1500 madeiras e leve para [%str_val:布告城市名字%]#1500#木材 4#Colete 500 pedras de ferro e leve para [%str_val:布告城市名字%]#500#铁石</t>
+  </si>
+  <si>
+    <t>0#Derrote 5 esquadrões da Irmandade do Deserto e vá para [%str_val:布告城市名字%]#5</t>
+  </si>
+  <si>
+    <t>4#Colete 200 jade para Bahat, Sultão de Akhal.#200#玉石</t>
+  </si>
+  <si>
+    <t>0#Persuadir Ruha do Dhib a assinar o tratado.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o Mestre da Espada na Vila Limestone.#1##大雪山:11303,3799:100|雪山剑豪 0#Leve o Mestre da Espada para um duelo com Ruha.#1</t>
+  </si>
+  <si>
+    <t>0#Localize uma geleira na extremidade nordeste de Frozen Valley (Frost). Derrote os monstros lá dentro sem se ferir.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
+  </si>
+  <si>
+    <t>0#Persuadir Rebiya a assinar em nome do Dakn.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Jihan no Souk de Half Moon Hills.#1##沙盒双月山谷:4110,-315:0|</t>
+  </si>
+  <si>
+    <t>0#Investigar a casa de Jihan.#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
+  </si>
+  <si>
+    <t>0#Fale com Jihan e leve Dahlia de volta para Rebiya.#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
+  </si>
+  <si>
+    <t>0#Persuadir Ludo Khan de Thur a assinar o tratado.#1</t>
+  </si>
+  <si>
+    <t>0#Procure por pistas.#1</t>
+  </si>
+  <si>
+    <t>0#Resolver a disputa sobre o iaque.#1|主线白牛</t>
+  </si>
+  <si>
+    <t>0#Conte sua história para Ludo Khan.#1</t>
+  </si>
+  <si>
+    <t>0#Derrote cinco esquadrões Ifrit que invadem Salzaar e colete todas as informações disponíveis.#5</t>
+  </si>
+  <si>
+    <t>0# Viaje para o domínio Ifrit e encontre a base do Ifrit Void Master.</t>
+  </si>
+  <si>
+    <t>0#Explore o jardim e depois retire-se.#1|trigger:大主线新版1309</t>
+  </si>
+  <si>
+    <t>0#Retorne ao Quartel dos Bombeiros para falar com o Mestre do Vazio Ifrit.#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
+    <t>0#Derrote Olum.#1</t>
+  </si>
+  <si>
+    <t>0#Descubra onde você está.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o pequeno Hewez.#1 0#Encontre Ali.#1</t>
+  </si>
+  <si>
+    <t>0#Transporte a cerca.#1|木工</t>
+  </si>
+  <si>
+    <t>0#Encontre três cogumelos brilhantes para ela na floresta.#3</t>
+  </si>
+  <si>
+    <t>0#Proteja a Deusa do Rio ao longo da margem do rio.#1|新主线结局大河女神河边</t>
+  </si>
+  <si>
+    <t>0#Retorne à base do Mestre do Vazio Ifrit e encontre o portal para o reino da Chama Obsidiana.#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口0#Derrote a Chama Obsidiana.#1</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1463,11 +1455,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="67.5" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1515,1235 +1507,1235 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="243" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>250</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="270" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="202.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>300</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="81" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>301</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="270" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>302</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="202.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>303</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="162" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="256.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>305</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="243" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>306</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="408.95" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>307</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="256.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>308</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="256.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
         <v>262</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s">
-        <v>309</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="108" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>310</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="175.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
         <v>264</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>311</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="202.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
         <v>265</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>312</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="121.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" t="s">
-        <v>313</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="108" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
-        <v>314</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="121.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" t="s">
-        <v>315</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="391.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" t="s">
-        <v>316</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="108" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
         <v>270</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>317</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="297" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>318</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="108" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
         <v>272</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" t="s">
-        <v>319</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="94.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
         <v>273</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" t="s">
-        <v>320</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="108" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
         <v>274</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" t="s">
-        <v>321</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="310.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
         <v>275</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" t="s">
-        <v>322</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="189" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
         <v>276</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>323</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" t="s">
-        <v>324</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="148.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
         <v>278</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" t="s">
-        <v>325</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="148.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" t="s">
-        <v>326</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="229.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" t="s">
-        <v>327</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="175.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" t="s">
-        <v>328</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="108" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
         <v>282</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
         <v>329</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="189" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
         <v>283</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" t="s">
         <v>330</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="229.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" t="s">
         <v>331</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I37" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="202.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" t="s">
         <v>332</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I38" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="408.95" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="s">
         <v>286</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" t="s">
         <v>333</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="175.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" t="s">
         <v>334</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="108" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" t="s">
         <v>335</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="162" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" t="s">
         <v>289</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" t="s">
         <v>336</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I42" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="175.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" t="s">
         <v>337</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="135" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
+        <v>291</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" t="s">
         <v>338</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I44" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="94.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="81" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="G46" t="s">
+        <v>293</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" t="s">
         <v>340</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I46" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="121.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G47" t="s">
+        <v>294</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" t="s">
         <v>341</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I47" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="135" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I48" t="s">
         <v>342</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I48" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="391.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
+        <v>296</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:9">

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38AEBB5-B1B1-44C6-9E1E-B4A86A339C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F2D27-9C90-4468-A053-0609057913FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,13 +1653,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.375" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.625" bestFit="1" customWidth="1"/>
@@ -2246,7 +2248,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="108">
+    <row r="25" spans="1:9" ht="94.5">
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="189">
+    <row r="29" spans="1:9" ht="135">
       <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="148.5">
+    <row r="32" spans="1:9" ht="108">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="175.5">
+    <row r="40" spans="1:9" ht="162">
       <c r="A40" s="2" t="s">
         <v>161</v>
       </c>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F2D27-9C90-4468-A053-0609057913FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B18D9-C47D-4C90-8D79-020E45DDBEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,6 +105,9 @@
     <t>0#将等级提升至3级#1</t>
   </si>
   <si>
+    <t>0#Reach level 3#1</t>
+  </si>
+  <si>
     <t>新主线2</t>
   </si>
   <si>
@@ -118,6 +121,10 @@
 0#消灭火魔人#1</t>
   </si>
   <si>
+    <t>0#Find Malak near the Pāhoehoe Lava Void#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
+0#Defeat the Ifrit#1</t>
+  </si>
+  <si>
     <t>新主线3</t>
   </si>
   <si>
@@ -130,6 +137,9 @@
     <t>0#等待阿月再次联系你#1</t>
   </si>
   <si>
+    <t>0#Wait for Isra to contact you#1</t>
+  </si>
+  <si>
     <t>新主线4</t>
   </si>
   <si>
@@ -142,6 +152,9 @@
     <t>0#前往西多喀那沙漠的石柱长廊#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
   </si>
   <si>
+    <t>0#Find the temple ruins in the West Docana Desert#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
+  </si>
+  <si>
     <t>新主线5</t>
   </si>
   <si>
@@ -154,6 +167,9 @@
     <t>0#前往寻找阿月#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
   </si>
   <si>
+    <t>0#Find Isra#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
+  </si>
+  <si>
     <t>新主线6</t>
   </si>
   <si>
@@ -166,6 +182,9 @@
     <t>0#探索火魔人与大河女神的秘密#1|大河神庙银珊</t>
   </si>
   <si>
+    <t>0#Unravel the secrets of the Ifrit and the River Goddess#1|大河神庙银珊</t>
+  </si>
+  <si>
     <t>新主线7</t>
   </si>
   <si>
@@ -178,6 +197,9 @@
     <t>0#等待七天的时间后前往黑崖的巫师法阵#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
   </si>
   <si>
+    <t>0#Wait for 7 days before heading to the Umbra Cliffs#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
+  </si>
+  <si>
     <t>新主线8</t>
   </si>
   <si>
@@ -190,6 +212,9 @@
     <t>0#探索火魔藏身处#1|新主线火魔结界银珊</t>
   </si>
   <si>
+    <t>0#Explore the Ifrit's base#1|新主线火魔结界银珊</t>
+  </si>
+  <si>
     <t>新主线9</t>
   </si>
   <si>
@@ -202,6 +227,9 @@
     <t>0#想办法离开废墟世界#1|不知名火魔</t>
   </si>
   <si>
+    <t>0#Think of a way to leave the Ifrit's domain#1|不知名火魔</t>
+  </si>
+  <si>
     <t>新主线10</t>
   </si>
   <si>
@@ -214,6 +242,9 @@
     <t>0#已收集的线索#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
   </si>
   <si>
+    <t>0#Collected clues#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
+  </si>
+  <si>
     <t>新主线11</t>
   </si>
   <si>
@@ -224,6 +255,9 @@
   </si>
   <si>
     <t>0#击败三队游荡的火魔人散兵#3</t>
+  </si>
+  <si>
+    <t>0#Defeat three squads of Ifrit#3</t>
   </si>
   <si>
     <t>新主线12</t>
@@ -240,6 +274,11 @@
 0#检查风哭岩的河流#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
   </si>
   <si>
+    <t>0#Check the river in Twinluna Valley#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
+0#Check the river in the Umbra Cliffs#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
+0#Check the river in Crying Rock#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
+  </si>
+  <si>
     <t>新主线13</t>
   </si>
   <si>
@@ -252,6 +291,9 @@
     <t>0#与银珊一同前去与火魔暗主谈判#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
   </si>
   <si>
+    <t>0#Proceed with Ilayda to negotiate with the Ifrit Void Master#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
+  </si>
+  <si>
     <t>新主线14</t>
   </si>
   <si>
@@ -264,6 +306,9 @@
     <t>0#劝说五大部落签订协议#5</t>
   </si>
   <si>
+    <t>0#Persuade the five tribes to sign a treaty#5</t>
+  </si>
+  <si>
     <t>新主线雄鹰1</t>
   </si>
   <si>
@@ -276,6 +321,9 @@
     <t>0#说服霍驹代表雄鹰部落签字#1</t>
   </si>
   <si>
+    <t>0#Persuade Husnu of the Nasir to sign the treaty#1</t>
+  </si>
+  <si>
     <t>新主线雄鹰2</t>
   </si>
   <si>
@@ -288,6 +336,9 @@
     <t>0#找到黑血水晶并交给霍驹#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
   </si>
   <si>
+    <t>0#Retrieve the Blackblood Crystal for Husnu#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
     <t>新主线雄鹰3</t>
   </si>
   <si>
@@ -300,6 +351,9 @@
     <t>0#前往狩猎山谷，把黑血水晶交还给兽人#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
   </si>
   <si>
+    <t>0#Proceed to Hunter's Valley and give the Blackblood Crystal to the Beastmen#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
     <t>新主线雄鹰4</t>
   </si>
   <si>
@@ -312,6 +366,9 @@
     <t>0#征服其他四大部落#4</t>
   </si>
   <si>
+    <t>0#Conquer the other four tribes#4</t>
+  </si>
+  <si>
     <t>新主线野马1</t>
   </si>
   <si>
@@ -324,6 +381,9 @@
     <t>0#说服苍骐代表野马部落签字#1</t>
   </si>
   <si>
+    <t>0#Persuade Bahat of the Akhal to sign the treaty#1</t>
+  </si>
+  <si>
     <t>新主线野马2</t>
   </si>
   <si>
@@ -334,6 +394,9 @@
   </si>
   <si>
     <t>0#征服毒蝎部落#1</t>
+  </si>
+  <si>
+    <t>0#Conquer the Dakn#1</t>
   </si>
   <si>
     <t>新主线野马3</t>
@@ -349,6 +412,10 @@
 4#将画像交给野马王#1#银珊画像</t>
   </si>
   <si>
+    <t>0#Go to Redstone Keep, the Golden Bazaar, and Camel Bell Bazaar and post notices recruiting skilled artists who can paint a portrait#1
+4#Give the painting to Bahat#1#银珊画像</t>
+  </si>
+  <si>
     <t>新主线野马3画师1</t>
   </si>
   <si>
@@ -359,6 +426,9 @@
   </si>
   <si>
     <t>4#收集8000乌塔并带去[%str_val:布告城市名字%]#8000#金钱</t>
+  </si>
+  <si>
+    <t>4#Collect 8000 Utar and take it to [%str_val:布告城市名字%]#8000#金钱</t>
   </si>
   <si>
     <t>新主线野马3画师2</t>
@@ -374,6 +444,10 @@
 4#收集500铁石并带去[%str_val:布告城市名字%]#500#铁石</t>
   </si>
   <si>
+    <t>4#Collect 1500 Wood and take it to [%str_val:布告城市名字%]#1500#木材
+4#Collect 500 Ironstone and take it to [%str_val:布告城市名字%]#500#铁石</t>
+  </si>
+  <si>
     <t>新主线野马3画师3</t>
   </si>
   <si>
@@ -386,6 +460,9 @@
     <t>0#击败五队沙漠兄弟会的游荡队伍后前往[%str_val:布告城市名字%]#5</t>
   </si>
   <si>
+    <t>0#Defeat 5 Desert Brotherhood squads and head to [%str_val:布告城市名字%]#5</t>
+  </si>
+  <si>
     <t>新主线野马4</t>
   </si>
   <si>
@@ -398,6 +475,9 @@
     <t>4#收集200玉石交给野马王苍骐#200#玉石</t>
   </si>
   <si>
+    <t>4#Collect 200 Jade for Bahat, Sultan of the Akhal#200#玉石</t>
+  </si>
+  <si>
     <t>新主线雪狼1</t>
   </si>
   <si>
@@ -408,6 +488,9 @@
   </si>
   <si>
     <t>0#说服封凛代表雪狼部落签字#1</t>
+  </si>
+  <si>
+    <t>0#Persuade Ruha of the Dhib to sign the treaty#1</t>
   </si>
   <si>
     <t>新主线雪狼2</t>
@@ -423,6 +506,10 @@
 0#将剑豪带去封凛处比试#1</t>
   </si>
   <si>
+    <t>0#Seek out the Swordmaster in Limestone Village#1##大雪山:11303,3799:100|雪山剑豪
+0#Take the Swordmaster to a duel with Ruha#1</t>
+  </si>
+  <si>
     <t>新主线雪狼3</t>
   </si>
   <si>
@@ -435,6 +522,9 @@
     <t>0#在冰谷附近东北找到一座冰川，并在不受伤的情况下击败里面的怪物#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
   </si>
   <si>
+    <t>0#Locate a glacier at the northeast edge of Frost Valley. Defeat the monsters within without getting hurt.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
+  </si>
+  <si>
     <t>新主线毒蝎1</t>
   </si>
   <si>
@@ -447,6 +537,9 @@
     <t>0#说服阿曼莎代表毒蝎部落签字#1</t>
   </si>
   <si>
+    <t>0#Persuade Rebiya to sign on behalf of the Dakn#1</t>
+  </si>
+  <si>
     <t>新主线毒蝎2</t>
   </si>
   <si>
@@ -459,6 +552,9 @@
     <t>0#前往半月山集市寻找古达#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
   </si>
   <si>
+    <t>0#Find Jihan in the Halfmoon Hills Bazaar#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
+  </si>
+  <si>
     <t>新主线毒蝎3</t>
   </si>
   <si>
@@ -471,6 +567,9 @@
     <t>0#调查古达的房子的线索#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
   </si>
   <si>
+    <t>0#Investigate Jihan's home#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
+  </si>
+  <si>
     <t>新主线毒蝎4</t>
   </si>
   <si>
@@ -483,6 +582,9 @@
     <t>0#找到古达并将弦萝带给阿曼莎#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
   </si>
   <si>
+    <t>0#Speak with Jihan and take Dahlia back to Rebiya#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
+  </si>
+  <si>
     <t>新主线毒蝎5</t>
   </si>
   <si>
@@ -504,6 +606,9 @@
     <t>0#说服汗卢达代表蛮牛部落签字#1</t>
   </si>
   <si>
+    <t>0#Persuade Ludo Khan of the Thur to sign the treaty#1</t>
+  </si>
+  <si>
     <t>新主线蛮牛2</t>
   </si>
   <si>
@@ -516,6 +621,9 @@
     <t>0#在各地寻找线索#1</t>
   </si>
   <si>
+    <t>0#Search for clues#1</t>
+  </si>
+  <si>
     <t>新主线蛮牛3</t>
   </si>
   <si>
@@ -528,6 +636,9 @@
     <t>0#解决白牛的归属权#1##大雪山:-9520,9619:500|主线白牛</t>
   </si>
   <si>
+    <t>0#Resolve the squabble over the yak#1|主线白牛</t>
+  </si>
+  <si>
     <t>新主线蛮牛4</t>
   </si>
   <si>
@@ -540,6 +651,9 @@
     <t>0#告诉汗卢达你经历的事情#1</t>
   </si>
   <si>
+    <t>0#Tell Ludo Khan your story#1</t>
+  </si>
+  <si>
     <t>新主线15</t>
   </si>
   <si>
@@ -552,6 +666,9 @@
     <t>0#击败五队四处入侵沙扎尔的火魔人战团并打听出有用的线索#5</t>
   </si>
   <si>
+    <t>0#Defeat five squads of the Ifrit invading Salzaar and gather any available information#5</t>
+  </si>
+  <si>
     <t>新主线16</t>
   </si>
   <si>
@@ -564,6 +681,9 @@
     <t>0#前往火魔之地寻找火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
+    <t>0#Journey to the Ifrit's domain and find the Ifrit Void Master's base#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
     <t>新主线17</t>
   </si>
   <si>
@@ -576,6 +696,9 @@
     <t>0#探索花圃并离开#1|trigger:大主线新版1309</t>
   </si>
   <si>
+    <t>0#Explore the garden and leave#1|trigger:大主线新版1309</t>
+  </si>
+  <si>
     <t>新主线18</t>
   </si>
   <si>
@@ -588,6 +711,9 @@
     <t>0#前往火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
+    <t>0#Return to the Fire Barracks to speak with the Ifrit Void Master#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
     <t>新主线19</t>
   </si>
   <si>
@@ -603,6 +729,9 @@
     <t>0#击败霍翎#1</t>
   </si>
   <si>
+    <t>0#Defeat Olum#1</t>
+  </si>
+  <si>
     <t>新主线千年前</t>
   </si>
   <si>
@@ -613,6 +742,9 @@
   </si>
   <si>
     <t>0#弄清楚自己身处何处#1</t>
+  </si>
+  <si>
+    <t>0#Figure out where you are#1</t>
   </si>
   <si>
     <t>新主线千年前1</t>
@@ -628,6 +760,10 @@
 0#找到阿力#1</t>
   </si>
   <si>
+    <t>0#Find Little Hewez#1
+0#Find Ali#1</t>
+  </si>
+  <si>
     <t>新主线千年前2</t>
   </si>
   <si>
@@ -640,6 +776,9 @@
     <t>0#运送栅栏#1|木工</t>
   </si>
   <si>
+    <t>0#Transport the fence#1|木工</t>
+  </si>
+  <si>
     <t>新主线千年前3</t>
   </si>
   <si>
@@ -652,6 +791,9 @@
     <t>0#在树林里为她找到三颗发光的蘑菇#3</t>
   </si>
   <si>
+    <t>0#Find three glowing mushrooms for her in the woods#3</t>
+  </si>
+  <si>
     <t>新主线千年前4</t>
   </si>
   <si>
@@ -662,6 +804,9 @@
   </si>
   <si>
     <t>0#前往河岸保护大河女神#1|新主线结局大河女神河边</t>
+  </si>
+  <si>
+    <t>0#Protect the River Goddess along the riverbank#1|新主线结局大河女神河边</t>
   </si>
   <si>
     <t>新主线20</t>
@@ -677,13 +822,17 @@
 0#击败黑火#1</t>
   </si>
   <si>
-    <t>Covil dos Ifrits</t>
+    <t>0#Return to the Ifrit Void Master's base and find the portal to the realm of Obsidian Flame#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
+0#Defeat the Obsidian Flame#1</t>
+  </si>
+  <si>
+    <t>Covil do Ifrit</t>
   </si>
   <si>
     <t>Mulher Misteriosa</t>
   </si>
   <si>
-    <t>Chamado por Ajuda</t>
+    <t>Chamado de Socorro</t>
   </si>
   <si>
     <t>Promessa de Isra</t>
@@ -716,10 +865,10 @@
     <t>No Abismo</t>
   </si>
   <si>
-    <t>No Abismo - Os Nasir</t>
-  </si>
-  <si>
-    <t>No Abismo - Cristal Sangue Negro</t>
+    <t>No Abismo - O Nasir</t>
+  </si>
+  <si>
+    <t>No Abismo - Cristal de Sangue Negro</t>
   </si>
   <si>
     <t>No Abismo - Direitos Restaurados</t>
@@ -728,7 +877,7 @@
     <t>No Abismo - Conquistar</t>
   </si>
   <si>
-    <t>No Abismo - Os Akhal</t>
+    <t>No Abismo - O Akhal</t>
   </si>
   <si>
     <t>No Abismo - Vingança</t>
@@ -737,7 +886,7 @@
     <t>No Abismo - Tinta Divina</t>
   </si>
   <si>
-    <t>No Abismo - Os Utar</t>
+    <t>No Abismo - Utar</t>
   </si>
   <si>
     <t>No Abismo - Recursos</t>
@@ -749,7 +898,7 @@
     <t>No Abismo - Minerais</t>
   </si>
   <si>
-    <t>No Abismo - Os Dhib</t>
+    <t>No Abismo - O Dhib</t>
   </si>
   <si>
     <t>No Abismo - Mestre da Espada</t>
@@ -758,7 +907,7 @@
     <t>No Abismo - Imaculado</t>
   </si>
   <si>
-    <t>No Abismo - Os Dakn</t>
+    <t>No Abismo - O Dakn</t>
   </si>
   <si>
     <t>No Abismo - Jihan</t>
@@ -770,25 +919,25 @@
     <t>No Abismo - Dahlia</t>
   </si>
   <si>
-    <t>No Abismo - Rainha dos Dakn</t>
-  </si>
-  <si>
-    <t>No Abismo - Os Thur</t>
+    <t>No Abismo - Rainha do Dakn</t>
+  </si>
+  <si>
+    <t>No Abismo - O Thur</t>
   </si>
   <si>
     <t>No Abismo - Compromisso</t>
   </si>
   <si>
-    <t>No Abismo - Oferta de Yak</t>
-  </si>
-  <si>
-    <t>Ludo Khan's Obsession - No Abismo - Obsessão de Ludo Khan</t>
+    <t>No Abismo - Desafio do Yak</t>
+  </si>
+  <si>
+    <t>No Abismo - Obsessão de Ludo Khan</t>
   </si>
   <si>
     <t>Traidor</t>
   </si>
   <si>
-    <t>Mestre do Vácuo dos Ifrits</t>
+    <t>Mestre do Vácuo Ifrit</t>
   </si>
   <si>
     <t>Jardim da Rosa Branca</t>
@@ -815,49 +964,59 @@
     <t>Duelo dos Destinos</t>
   </si>
   <si>
-    <t>Você conheceu Malak e Isra, dois estudiosos que foram atacados por monstros estranhos. Eles lhe disseram que muitos desses seres - os Ifrits - vagam pelas terras de Salzaar. Você precisa ficar mais forte para se proteger.</t>
-  </si>
-  <si>
-    <t>Isra apareceu e te salvou do gigante Ifrit quando você estava à beira da morte. Como ela poderia ter derrotado um monstro tão poderoso? Mistério envolve essa mulher. Isra entrará em contato com você em alguns dias.</t>
-  </si>
-  <si>
-    <t>Isra pediu que você a encontrasse &lt;color=red&gt;ao norte de Agadir no Vale Twinluna&lt;/color&gt;. Ela tem muitas coisas para compartilhar com você.</t>
-  </si>
-  <si>
-    <t>Os Arcanistas abriram uma barreira para a base dos Ifrits. É hora de entrar e procurar pistas do Mestre do Vácuo dos Ifrits com Ilayda. Não seja pego pelos Ifrits!</t>
-  </si>
-  <si>
-    <t>Explore o templo com Ilayda e descubra os segredos da Deusa do Rio e dos Ifrits.</t>
-  </si>
-  <si>
-    <t>O Mestre do Vácuo dos Ifrits te enviou para outra dimensão com seus poderes arcanos. Ilayda não está em lugar nenhum. Pense em uma maneira de encontrá-la e sair daqui!</t>
-  </si>
-  <si>
-    <t>Você e Ilayda precisam rastrear os Arcanistas. O que aconteceu com eles enquanto você estava fora? A última notícia deles foi na estrada para as Montanhas Zagros nos Penhascos da Umbra. Dirija-se à &lt;color=red&gt;área mais a leste dos Penhascos da Umbra&lt;/color&gt; para investigar.</t>
-  </si>
-  <si>
-    <t>À medida que a barreira se desfaz, &lt;color=red&gt;hordas de Ifrits&lt;/color&gt; invadem o reino dos homens para saquear. Rastreie-os - eles podem saber algo sobre o Mestre do Vácuo dos Ifrits.</t>
-  </si>
-  <si>
-    <t>O Ifrit que você capturou disse que a entrada do acampamento do Mestre do Vácuo dos Ifrits está escondida em um local secreto perto de um rio. O rio passa pelo Vale Twinluna, Crying Rock e os Penhascos da Umbra. Talvez &lt;color=red&gt;tavernas nessas áreas possam compartilhar rumores sobre os Ifrits&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Você e Ilayda encontraram o esconderijo dos Ifrits perto de uma cachoeira perto de Crying Rock. O Mestre do Vácuo dos Ifrits está surpreendentemente despreparado para a sua chegada. Embora o coração de Ilayda esteja cheio de dúvidas, ela escolhe abordá-lo pacificamente para negociar com ele.</t>
-  </si>
-  <si>
-    <t>Ilayda começou sua jornada para as Montanhas Ilyas para cumprir seu acordo com o Mestre do Vácuo dos Ifrits. Sua tarefa pode ser mais difícil - persuadir as cinco tribos a assinar um tratado com os Ifrits e ajudá-los em sua migração para as Montanhas Ilyas.</t>
+    <t>Você encontrou Malak e Isra, dois estudiosos que foram atacados por monstros estranhos. Eles te contaram que muitos desses seres - os Ifrit - vagam pelas terras de Salzaar. Você precisa ficar mais forte para se proteger.</t>
+  </si>
+  <si>
+    <t>Após repetidos pedidos de Malak, você decide ajudá-lo a ganhar acesso ao covil do Ifrit no Vácuo de Lava Pāhoehoe, localizado ao sul de Fortaleza de Pedra Vermelha. Destrua o Ifrit!</t>
+  </si>
+  <si>
+    <t>Isra apareceu e te salvou do gigante Ifrit justo quando você estava à beira da morte. Como ela conseguiu derrotar um monstro tão poderoso? Um mistério envolve essa mulher. Isra entrará em contato contigo em alguns dias.</t>
+  </si>
+  <si>
+    <t>Você ouviu o chamado de Isra por ajuda quando pegou uma pedra encantada no deserto. Parece que ela está em perigo. Dirija-se às ruínas do templo no &lt;color=red&gt;Deserto Oeste de Docana&lt;/color&gt; e a salve!</t>
+  </si>
+  <si>
+    <t>Isra pediu que você a encontrasse &lt;color=red&gt;ao norte de Agadir, no Vale da Lua Gêmea&lt;/color&gt;. Ela tem muitas coisas para compartilhar com você.</t>
+  </si>
+  <si>
+    <t>Explore o templo com Ilayda e descubra os segredos da Deusa do Rio e do Ifrit.</t>
+  </si>
+  <si>
+    <t>Ilayda fala de um assentamento oculto ao sul de Fleur, nos Penhascos Umbra, onde os Arcanistas, um grupo de antigos feiticeiros da Cidade de Jamal, estão conjurando um círculo arcano para atrair o Mestre do Vazio Ifrit. Sua tarefa será concluída após 15 dias.</t>
+  </si>
+  <si>
+    <t>Os Arcanistas abriram uma barreira para a base do Ifrit. Chegou a hora de entrar e procurar por vestígios do Mestre do Vazio Ifrit com Ilayda. Não seja pego pelo Ifrit!</t>
+  </si>
+  <si>
+    <t>O Mestre do Vazio Ifrit te lançou para outra dimensão com seus poderes arcanos. Ilayda não está em lugar algum. Pense em uma maneira de encontrá-la e sair daqui!</t>
+  </si>
+  <si>
+    <t>Você e Ilayda precisam rastrear os Arcanistas. O que aconteceu com eles enquanto você estava fora? A última notícia deles foi na estrada para as Montanhas Zagros, nos Penhascos Umbra. Dirijam-se para a &lt;color=red&gt;área mais a leste dos Penhascos Umbra&lt;/color&gt; para investigar.</t>
+  </si>
+  <si>
+    <t>À medida que a barreira se desfaz, &lt;color=red&gt;hordas de Ifrits&lt;/color&gt; invadem o reino dos homens para saquear. Rastreie-os - eles podem saber algo sobre o Mestre do Vazio Ifrit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você e Ilayda encontraram o esconderijo do Mestre do Vazio do Ifrit perto de uma cachoeira perto da Rocha Chorosa. Surpreendentemente, o Mestre do Vazio do Ifrit está despreparado para a sua chegada. Embora o coração de Ilayda esteja cheio de dúvidas, ela opta por se aproximar pacificamente para negociar com ele.
+</t>
+  </si>
+  <si>
+    <t>O Ifrit que você capturou disse que a entrada para o acampamento do Mestre do Vazio do Ifrit está escondida em um local secreto perto de um rio. O rio passa pelo Vale da Lua Gêmea, Rocha Chorosa e os Penhascos da Umbra. Talvez &lt;color=red&gt;as tavernas nessas áreas possam compartilhar rumores sobre os Ifrits&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Ilayda começou sua jornada para as Montanhas Ilyas para cumprir seu acordo com o Mestre do Vazio Ifrit. Sua tarefa pode ser mais difícil: persuadir as cinco tribos a assinar um tratado com os Ifrits e ajudá-las em sua migração para as Montanhas Ilyas.</t>
   </si>
   <si>
     <t>Você deve encontrar Husnu, o Sultão dos Nasir, e persuadi-lo a assinar o tratado.</t>
   </si>
   <si>
-    <t>Husnu espera que você o ajude a rastrear um tesouro lendário - o Cristal do Sangue Negro. &lt;color=red&gt;Talvez uma taverna próxima tenha ouvido rumores sobre o cristal&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Husnu, por cautela, não quer guardar o Cristal do Sangue Negro para si mesmo. Um tesouro tão disputado pertence aos seus verdadeiros donos - os Beastmen do Vale do Caçador.</t>
-  </si>
-  <si>
-    <t>Você prometeu a Husnu que conquistaria as outras quatro tribos para ajudar os Nasir a assumirem o controle desta terra.</t>
+    <t>Husnu espera que você o ajude a encontrar um tesouro lendário - o Cristal Sangue Negro. &lt;color=red&gt;Talvez uma taverna próxima tenha ouvido rumores sobre o cristal&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Husnu, por precaução, não quer manter o Cristal Sangue Negro para si mesmo. Um tesouro tão disputado pertence aos seus legítimos donos - os Homem-Besta do Vale do Caçador.</t>
+  </si>
+  <si>
+    <t>Você prometeu a Husnu que conquistaria as outras quatro tribos para ajudar os Nasir a assumirem seu lugar como mestres desta terra.</t>
   </si>
   <si>
     <t>Você deve encontrar Bahat, o Sultão dos Akhal, e persuadi-lo a assinar o tratado.</t>
@@ -872,240 +1031,82 @@
     <t>O pintor que você encontrou exige uma comissão de 8000 Utar.</t>
   </si>
   <si>
-    <t>O pintor que você encontrou exige uma comissão de 1500 Madeira e 500 Pedra de Ferro.</t>
-  </si>
-  <si>
-    <t>O pintor espera que você puna a Irmandade do Deserto por desperdiçar seu tempo.</t>
-  </si>
-  <si>
-    <t>Bahat, o Sultão dos Akhal, espera 200 Jade para assinar seu tratado com os Ifrits.</t>
+    <t>O pintor que você encontrou exige uma comissão de 1500 de Madeira e 500 de Pedra de Ferro.</t>
+  </si>
+  <si>
+    <t>O pintor espera que você puna a Irmandade do Deserto por desperdiçar o tempo dele.</t>
+  </si>
+  <si>
+    <t>Bahat, o Sultão dos Akhal, espera 200 Jades em troca de sua assinatura no tratado com os Ifrits.</t>
   </si>
   <si>
     <t>Você deve encontrar Ruha, Guerreiro das Montanhas Zagros, e persuadi-lo a assinar o tratado em nome dos Dhib.</t>
   </si>
   <si>
-    <t>Ruha quer lutar contra o oponente de seus sonhos - um espadachim lendário que se chama Swordmaster. Só então ele assinará seu tratado.</t>
-  </si>
-  <si>
-    <t>O espadachim irá com você se você provar ser digno. Você deve derrotar um monstro de puro mal sem um arranhão.</t>
+    <t>Ruha deseja enfrentar o oponente dos seus sonhos - um espadachim lendário que se autodenomina o Mestre da Espada. Somente depois disso ele concordará em assinar o seu tratado.</t>
+  </si>
+  <si>
+    <t>O espadachim se juntará a você se conseguir provar sua dignidade. Você deve derrotar um monstro de pura maldade sem sofrer nenhum arranhão.</t>
   </si>
   <si>
     <t>Você deve encontrar Rebiya, Rainha dos Dakn, e persuadi-la a assinar o tratado.</t>
   </si>
   <si>
-    <t>Rebiya está procurando por uma mulher chamada Dahlia. Se alguém souber onde ela está, será Jihan, um comerciante no Bazar Halfmoon Hills.</t>
-  </si>
-  <si>
-    <t>Jihan estabeleceu suas condições - ele precisa de sua ajuda para investigar uma sombra assombrada em sua casa.</t>
-  </si>
-  <si>
-    <t>Jihan trouxe Dahlia para a &lt;color=red&gt;floresta à beira do lago, ao norte do Bazar Halfmoon Hills no Vale Twinluna&lt;/color&gt;. Leve-a de volta para Rebiya.</t>
-  </si>
-  <si>
-    <t>Você quebrou seu acordo com Rebiya para salvar Dahlia. O único caminho a seguir é conquistar os Dakn você mesmo e assinar o tratado em nome deles.</t>
+    <t>Jihan impôs suas condições - ele precisa de sua ajuda para investigar uma sombra assustadora em sua casa.</t>
+  </si>
+  <si>
+    <t>Rebiya está procurando por uma mulher chamada Dahlia. Se alguém souber onde ela está, será Jihan, um comerciante no Bazar das Colinas Meias-Luas.</t>
+  </si>
+  <si>
+    <t>Jihan trouxe Dahlia para a &lt;color=red&gt;floresta à beira do lago, ao norte do Bazar das Colinas Meias-Luas no Vale da Lua Gêmea&lt;/color&gt;. Leve-a de volta para Rebiya.</t>
+  </si>
+  <si>
+    <t>Você quebrou seu acordo com Rebiya para salvar Dahlia. O único caminho possível agora é conquistar os Dakn você mesmo e assinar o tratado em nome deles.</t>
   </si>
   <si>
     <t>Você deve encontrar Ludo Khan, Líder dos Thur e Senhor do Pântano, para persuadi-lo a assinar o tratado.</t>
   </si>
   <si>
-    <t>Descubra se Ludo Khan, Sultão dos Thur e Senhor do Pântano, está disposto a assinar um acordo. Pode ser uma boa ideia &lt;color=red&gt;discutir este assunto com outros líderes Thur e proprietários de tavernas&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Você assinou um tratado com as cinco tribos, mas o Mestre do Vácuo dos Ifrits quebrou sua palavra e aprisionou Ilayda nas Montanhas Ilyas! Os Ifrits estão invadindo Salzaar, e o tratado que você gastou tanto tempo para assinar agora não passa de um pedaço de pergaminho sem valor. Interrogue um &lt;color=red&gt;Batalhão dos Ifrits&lt;/color&gt; para descobrir a localização de Ilayda. Eles podem ser encontrados na maioria dos lugares, mas muitos se reúnem no &lt;color=red&gt;Domínio dos Ifrits&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>O Mestre do Vácuo dos Ifrits já lançou sua campanha contra a humanidade. Encontre-o e persuade-o a libertar Ilayda.</t>
-  </si>
-  <si>
-    <t>Você foi enganado pelos truques do Mestre do Vácuo dos Ifrits e acordou no jardim de Riq.</t>
-  </si>
-  <si>
-    <t>Embora os Ifrits tenham quebrado seu acordo e atacado a humanidade, Ilayda está disposta a tentar convencê-los uma última vez.</t>
-  </si>
-  <si>
-    <t>Há alguém ainda mais maligno do que o Mestre do Vácuo dos Ifrits, e eles estão diante de você agora. Você é confrontado por Olum, que parece não ser mais velho do que um garoto.</t>
-  </si>
-  <si>
-    <t>Você levou a pior durante sua batalha com Olum e desmaiou. Ao acordar, você percebe que não tem ideia de onde está.</t>
+    <t>Descubra se Ludo Khan, Sultão dos Thur e Senhor do Pântano, está disposto a assinar um acordo. Pode ser uma boa ideia &lt;color=red&gt;discutir esse assunto com outros líderes dos Thur e proprietários de tavernas.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Você encontrou uma jovem mulher, talvez a Princesa dos Thur, no Vale da Geada. Ela espera que você a ajude a resolver um assunto de grande urgência - três homens estão discutindo sobre quem é o verdadeiro dono de um yak branco e fofo que vagou pelas colinas deles.</t>
+  </si>
+  <si>
+    <t>A jovem mulher no Vale da Geada confessou sua verdadeira identidade a você e lhe deu um pequeno presente - um balde cheio de jade. Tente entregá-la a Ludo Khan para ver se isso amenizará as coisas.</t>
+  </si>
+  <si>
+    <t>Você assinou um tratado com as cinco tribos, mas o Mestre do Vazio Ifrit quebrou sua palavra e aprisionou Ilayda nas Montanhas Ilyas! Os Ifrits estão invadindo Salzaar, e o tratado que você gastou tanto tempo conseguindo assinar agora não passa de um pedaço de pergaminho sem valor. Interrogue um &lt;color=red&gt;Batalhão Ifrit&lt;/color&gt; para descobrir a localização de Ilayda. Eles podem ser encontrados em muitos lugares, mas muitos se reúnem no &lt;color=red&gt;Domínio Ifrit&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>O Mestre do Vazio Ifrit já lançou sua campanha contra a humanidade. Encontre e o faça libertar Ilayda.</t>
+  </si>
+  <si>
+    <t>Você foi enganado pelos truques do Mestre do Vazio Ifrit e acordou encontrando-se no jardim de Riq.</t>
+  </si>
+  <si>
+    <t>Embora os Ifrit tenham quebrado seu acordo e atacado a humanidade, Ilayda está disposta a tentar convencê-los mais uma vez.</t>
+  </si>
+  <si>
+    <t>Existe alguém ainda mais perverso do que o Mestre do Vazio Ifrit, e ele está diante de você agora. Você é confrontado por Olum, que parece não ser mais velho do que um garoto.</t>
+  </si>
+  <si>
+    <t>Você levou um golpe significativo durante sua batalha com Olum e desmaiou. Ao acordar, você percebe que não tem ideia de onde está.</t>
   </si>
   <si>
     <t>Ajude o Pequeno Jarah a encontrar as outras duas crianças.</t>
   </si>
   <si>
-    <t>Ajude Ghazi a transportar um pouco de Madeira para o sul e a construir uma cerca para proteger a cidade dos Ifrits.</t>
-  </si>
-  <si>
-    <t>Você se depara com uma fêmea Ifrit alimentando seus filhos. Ela está relutante em machucar os humanos.</t>
-  </si>
-  <si>
-    <t>Você acorda novamente e descobre que os Ifrits escravizaram a humanidade e que a Deusa do Rio está em grave perigo. Proteja ela!</t>
-  </si>
-  <si>
-    <t>Você acorda de memórias de um milênio com o conhecimento da força que tem estado por trás de tudo isso - a Chama Obsidiana, controladora do destino e da sorte.Somente você e Ilayda têm o poder de derrotá-lo. Agora é a hora de restaurar a ordem em Salzaar!</t>
-  </si>
-  <si>
-    <t>Após repetidos pedidos de Malak, você decide ajudá-lo a ganhar acesso ao covil do Ifrit no Vácuo de Lava Pāhoehoe, ao sul de Castelo de Pedra Vermelha. Destrua o Ifrit!</t>
-  </si>
-  <si>
-    <t>Você ouviu o chamado de ajuda de Isra quando pegou uma pedra encantada no deserto. Parece que ela está em perigo. Dirija-se às ruínas do templo no &lt;color=red&gt;Deserto Oeste de Docana&lt;/color&gt; e salve-a!</t>
-  </si>
-  <si>
-    <t>Você conheceu uma jovem mulher, talvez a Princesa Thur, no Vale do Gelo. Ela espera que você a ajude a resolver um assunto de grande urgência - três homens estão brigando por quem é o legítimo proprietário de um yak branco fofo que vagou por suas colinas.</t>
-  </si>
-  <si>
-    <t>A jovem mulher no Vale do Gelo confessou sua verdadeira identidade a você e lhe deu um pequeno presente - uma cuia de jade. Tente entregá-lo a Ludo Khan para ver se isso ajudará a resolver as coisas.</t>
-  </si>
-  <si>
-    <t>Ilayda fala de um assentamento escondido ao sul de Fleur nos Penhascos da Umbra, onde os Arcanistas, um grupo de antigos magos de Cidade de Jamal, estão lançando um círculo arcano para atrair o Mestre do Vácuo dos Ifrits. Sua tarefa será concluída após 15 dias.</t>
-  </si>
-  <si>
-    <t>0#Alcance o nível 3#1</t>
-  </si>
-  <si>
-    <t>0#Encontre Malak perto do Vácuo de Lava Pāhoehoe#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
-0#Derrote o Ifrit#1</t>
-  </si>
-  <si>
-    <t>0#Espere que Isra entre em contato com você#1</t>
-  </si>
-  <si>
-    <t>0#Encontre as ruínas do templo no Deserto West Docana#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
-  </si>
-  <si>
-    <t>0#Encontre Isra#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
-  </si>
-  <si>
-    <t>0#Desvende os segredos do Ifrit e da Deusa do Rio#1|大河神庙银珊</t>
-  </si>
-  <si>
-    <t>0#Explore a base do Ifrit.#1|新主线火魔结界银珊</t>
-  </si>
-  <si>
-    <t>0#Espere por 7 dias antes de seguir para os Penhascos Umbra#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
-  </si>
-  <si>
-    <t>0#Pense em uma maneira de sair do domínio do Ifrit#1|不知名火魔</t>
-  </si>
-  <si>
-    <t>0#Colete pistas.#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
-  </si>
-  <si>
-    <t>0#Derrote três esquadrões de Ifrit#3</t>
-  </si>
-  <si>
-    <t>0#Verifique o rio no Vale Twinluna#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
-0#Verifique o rio nos Penhascos Umbra#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
-0#Verifique o rio em Rocha Chorosa#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
-  </si>
-  <si>
-    <t>0#Prossiga com Ilayda para negociar com o Mestre do Ifrit do Vácuo#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
-  </si>
-  <si>
-    <t>0#Persuadir as cinco tribos a assinar um tratado#5</t>
-  </si>
-  <si>
-    <t>0#Persuadir Husnu dos Nasir a assinar o tratado#1</t>
-  </si>
-  <si>
-    <t>0#Recupere o Cristal Sangue Negro para Husnu#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
-    <t>0#Vá para o Vale dos Caçadores e entregue o Cristal Sangue Negro aos Homens-Besta#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
-    <t>0#Conquiste as outras quatro tribos#4</t>
-  </si>
-  <si>
-    <t>0#Persuadir Bahat dos Akhal a assinar o tratado#1</t>
-  </si>
-  <si>
-    <t>0#Conquiste os Dakn#1</t>
-  </si>
-  <si>
-    <t>0#Vá para Fortaleza de Pedra Vermelha, o Bazar Dourado e o Bazar do Sino do Camelo e coloque avisos recrutando artistas habilidosos que possam pintar um retrato#1
-4#Dê a pintura a Bahat#1#银珊画像</t>
-  </si>
-  <si>
-    <t>4#Colete 8000 Utar e leve para [%str_val:布告城市名字%]#8000#金钱</t>
-  </si>
-  <si>
-    <t>4#Colete 1.500 madeiras e leve-as para [%str_val:布告城市名字%]#1500#木材
-4#Colete 500 pedras de ferro e leve-as para [%str_val:布告城市名字%]#500#铁石</t>
-  </si>
-  <si>
-    <t>0#Derrote 5 esquadrões da Irmandade do Deserto e vá para [%str_val:布告城市名字%]#5</t>
-  </si>
-  <si>
-    <t>4#Colete 200 Jade para Bahat, Sultão dos Akhal#200#玉石</t>
-  </si>
-  <si>
-    <t>0#Persuadir Ruha dos Dhib a assinar o tratado#1</t>
-  </si>
-  <si>
-    <t>0#Procurar o Mestre Espadachim na Vila Limestone#1##大雪山:11303,3799:100|雪山剑豪
-0#Levar o Mestre Espadachim a um duelo com Ruha#1</t>
-  </si>
-  <si>
-    <t>0#Localize uma geleira na borda nordeste do Vale do Gelo. Derrote os monstros dentro sem se machucar.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
-  </si>
-  <si>
-    <t>0#Persuadir Rebiya a assinar em nome dos Dakn#1</t>
-  </si>
-  <si>
-    <t>0#Encontre Jihan no Mercado das Colinas da Meia-Lua#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
-  </si>
-  <si>
-    <t>0#Investigue a casa de Jihan#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
-  </si>
-  <si>
-    <t>0#Fale com Jihan e leve Dahlia de volta para Rebiya.#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
-  </si>
-  <si>
-    <t>0#Persuadir Ludo Khan dos Thur a assinar o tratado#1</t>
-  </si>
-  <si>
-    <t>0#Procure pistas#1</t>
-  </si>
-  <si>
-    <t>0#Resolva a briga sobre o yak#1|主线白牛</t>
-  </si>
-  <si>
-    <t>0#Diga a Ludo Khan a sua história#1</t>
-  </si>
-  <si>
-    <t>0#Derrote cinco esquadrões do Ifrit invadindo Salzaar e reúna qualquer informação disponível#5</t>
-  </si>
-  <si>
-    <t>0#Viaje para o domínio dos Ifrit e encontre a base do Mestre do Vazio Ifrit#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
-    <t>0#Explore o jardim e saia#1|trigger:大主线新版1309</t>
-  </si>
-  <si>
-    <t>0#Volte para os Alojamentos de Fogo para falar com o Mestre do Vazio Ifrit#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
-    <t>0#Derrote Olum#1</t>
-  </si>
-  <si>
-    <t>0#Descubra onde você está#1</t>
-  </si>
-  <si>
-    <t>0#Encontre o pequeno Hewez#1
-0#Encontre Ali#1</t>
-  </si>
-  <si>
-    <t>0#Transporte a cerca#1|木工</t>
-  </si>
-  <si>
-    <t>0#Encontre três cogumelos brilhantes para ela na floresta#3</t>
-  </si>
-  <si>
-    <t>0#Proteja a Deusa do Rio ao longo da margem do rio#1|新主线结局大河女神河边</t>
-  </si>
-  <si>
-    <t>0#Volte à base do Mestre do Vazio Ifrit e encontre o portal para o reino da Chama Obsidiana#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
-0#Derrote a Chama Obsidiana#1</t>
+    <t>Ajude Ghazi a transportar um pouco de madeira para o sul e ajude a construir uma cerca para proteger a cidade dos Ifrits.</t>
+  </si>
+  <si>
+    <t>Você se depara com uma Ifrit fêmea alimentando seus filhos. Ela não está disposta a machucar humanos.</t>
+  </si>
+  <si>
+    <t>Você desperta mais uma vez para descobrir que os Ifrit escravizaram a humanidade e que a Deusa do Rio está em grave perigo. Proteja ela!</t>
+  </si>
+  <si>
+    <t>Você desperta das memórias de mil anos atrás, já ciente da verdadeira identidade por trás das cortinas - a Chama Obsidiana, Todas as contradições e conflitos são manipulados por suas mãos; e você, junto com Ilayda, são as únicas pessoas capazes de derrotá-la. É hora de entender tudo e restaurar a ordem em Salzaar!</t>
   </si>
 </sst>
 </file>
@@ -1653,17 +1654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="59.375" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1696,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="243">
+    <row r="2" spans="1:9" ht="202.5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1710,1142 +1711,1142 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>248</v>
+      <c r="G2" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="189">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>297</v>
+        <v>18</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="270">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="202.5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>300</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="81">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>252</v>
+        <v>37</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="270">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>295</v>
+        <v>42</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>303</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="202.5">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>251</v>
+        <v>47</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="162">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="256.5">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="243">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="310.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.5">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="256.5">
+        <v>68</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="202.5">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>257</v>
+        <v>72</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>308</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="256.5">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="108">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="D16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>310</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="175.5">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="202.5">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>312</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="121.5">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>262</v>
+        <v>97</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>313</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="108">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>314</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="121.5">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="175.5">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>316</v>
+        <v>113</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="108">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="135">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="189">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="94.5">
+        <v>123</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="108">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>319</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="94.5">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>320</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="108">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="135">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="148.5">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="135">
+        <v>143</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="189">
       <c r="A29" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>323</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>324</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="148.5">
       <c r="A31" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="108">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="148.5">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>326</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="229.5">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="175.5">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="108">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="189">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="229.5">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="202.5">
       <c r="A38" s="2" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.5">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="162">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="175.5">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="D40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="108">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>334</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="162">
       <c r="A42" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="175.5">
       <c r="A43" s="2" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="135">
       <c r="A44" s="2" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="54">
       <c r="A45" s="2" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>338</v>
+        <v>227</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="81">
       <c r="A46" s="2" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="121.5">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>340</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="135">
       <c r="A48" s="2" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="297">
       <c r="A49" s="2" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>342</v>
+        <v>247</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:9">

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_MainStory_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B18D9-C47D-4C90-8D79-020E45DDBEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5BA86-1F21-4560-BCD7-4EC37D829EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>0#将等级提升至3级#1</t>
   </si>
   <si>
-    <t>0#Reach level 3#1</t>
-  </si>
-  <si>
     <t>新主线2</t>
   </si>
   <si>
@@ -121,10 +118,6 @@
 0#消灭火魔人#1</t>
   </si>
   <si>
-    <t>0#Find Malak near the Pāhoehoe Lava Void#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
-0#Defeat the Ifrit#1</t>
-  </si>
-  <si>
     <t>新主线3</t>
   </si>
   <si>
@@ -137,9 +130,6 @@
     <t>0#等待阿月再次联系你#1</t>
   </si>
   <si>
-    <t>0#Wait for Isra to contact you#1</t>
-  </si>
-  <si>
     <t>新主线4</t>
   </si>
   <si>
@@ -152,9 +142,6 @@
     <t>0#前往西多喀那沙漠的石柱长廊#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
   </si>
   <si>
-    <t>0#Find the temple ruins in the West Docana Desert#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
-  </si>
-  <si>
     <t>新主线5</t>
   </si>
   <si>
@@ -167,9 +154,6 @@
     <t>0#前往寻找阿月#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
   </si>
   <si>
-    <t>0#Find Isra#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
-  </si>
-  <si>
     <t>新主线6</t>
   </si>
   <si>
@@ -182,9 +166,6 @@
     <t>0#探索火魔人与大河女神的秘密#1|大河神庙银珊</t>
   </si>
   <si>
-    <t>0#Unravel the secrets of the Ifrit and the River Goddess#1|大河神庙银珊</t>
-  </si>
-  <si>
     <t>新主线7</t>
   </si>
   <si>
@@ -197,9 +178,6 @@
     <t>0#等待七天的时间后前往黑崖的巫师法阵#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
   </si>
   <si>
-    <t>0#Wait for 7 days before heading to the Umbra Cliffs#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
-  </si>
-  <si>
     <t>新主线8</t>
   </si>
   <si>
@@ -212,9 +190,6 @@
     <t>0#探索火魔藏身处#1|新主线火魔结界银珊</t>
   </si>
   <si>
-    <t>0#Explore the Ifrit's base#1|新主线火魔结界银珊</t>
-  </si>
-  <si>
     <t>新主线9</t>
   </si>
   <si>
@@ -227,9 +202,6 @@
     <t>0#想办法离开废墟世界#1|不知名火魔</t>
   </si>
   <si>
-    <t>0#Think of a way to leave the Ifrit's domain#1|不知名火魔</t>
-  </si>
-  <si>
     <t>新主线10</t>
   </si>
   <si>
@@ -242,9 +214,6 @@
     <t>0#已收集的线索#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
   </si>
   <si>
-    <t>0#Collected clues#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
-  </si>
-  <si>
     <t>新主线11</t>
   </si>
   <si>
@@ -255,9 +224,6 @@
   </si>
   <si>
     <t>0#击败三队游荡的火魔人散兵#3</t>
-  </si>
-  <si>
-    <t>0#Defeat three squads of Ifrit#3</t>
   </si>
   <si>
     <t>新主线12</t>
@@ -274,11 +240,6 @@
 0#检查风哭岩的河流#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
   </si>
   <si>
-    <t>0#Check the river in Twinluna Valley#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
-0#Check the river in the Umbra Cliffs#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
-0#Check the river in Crying Rock#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
-  </si>
-  <si>
     <t>新主线13</t>
   </si>
   <si>
@@ -291,9 +252,6 @@
     <t>0#与银珊一同前去与火魔暗主谈判#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
   </si>
   <si>
-    <t>0#Proceed with Ilayda to negotiate with the Ifrit Void Master#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
-  </si>
-  <si>
     <t>新主线14</t>
   </si>
   <si>
@@ -306,9 +264,6 @@
     <t>0#劝说五大部落签订协议#5</t>
   </si>
   <si>
-    <t>0#Persuade the five tribes to sign a treaty#5</t>
-  </si>
-  <si>
     <t>新主线雄鹰1</t>
   </si>
   <si>
@@ -321,9 +276,6 @@
     <t>0#说服霍驹代表雄鹰部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Husnu of the Nasir to sign the treaty#1</t>
-  </si>
-  <si>
     <t>新主线雄鹰2</t>
   </si>
   <si>
@@ -336,9 +288,6 @@
     <t>0#找到黑血水晶并交给霍驹#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Retrieve the Blackblood Crystal for Husnu#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
     <t>新主线雄鹰3</t>
   </si>
   <si>
@@ -351,9 +300,6 @@
     <t>0#前往狩猎山谷，把黑血水晶交还给兽人#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Proceed to Hunter's Valley and give the Blackblood Crystal to the Beastmen#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
     <t>新主线雄鹰4</t>
   </si>
   <si>
@@ -366,9 +312,6 @@
     <t>0#征服其他四大部落#4</t>
   </si>
   <si>
-    <t>0#Conquer the other four tribes#4</t>
-  </si>
-  <si>
     <t>新主线野马1</t>
   </si>
   <si>
@@ -381,9 +324,6 @@
     <t>0#说服苍骐代表野马部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Bahat of the Akhal to sign the treaty#1</t>
-  </si>
-  <si>
     <t>新主线野马2</t>
   </si>
   <si>
@@ -394,9 +334,6 @@
   </si>
   <si>
     <t>0#征服毒蝎部落#1</t>
-  </si>
-  <si>
-    <t>0#Conquer the Dakn#1</t>
   </si>
   <si>
     <t>新主线野马3</t>
@@ -412,10 +349,6 @@
 4#将画像交给野马王#1#银珊画像</t>
   </si>
   <si>
-    <t>0#Go to Redstone Keep, the Golden Bazaar, and Camel Bell Bazaar and post notices recruiting skilled artists who can paint a portrait#1
-4#Give the painting to Bahat#1#银珊画像</t>
-  </si>
-  <si>
     <t>新主线野马3画师1</t>
   </si>
   <si>
@@ -426,9 +359,6 @@
   </si>
   <si>
     <t>4#收集8000乌塔并带去[%str_val:布告城市名字%]#8000#金钱</t>
-  </si>
-  <si>
-    <t>4#Collect 8000 Utar and take it to [%str_val:布告城市名字%]#8000#金钱</t>
   </si>
   <si>
     <t>新主线野马3画师2</t>
@@ -444,10 +374,6 @@
 4#收集500铁石并带去[%str_val:布告城市名字%]#500#铁石</t>
   </si>
   <si>
-    <t>4#Collect 1500 Wood and take it to [%str_val:布告城市名字%]#1500#木材
-4#Collect 500 Ironstone and take it to [%str_val:布告城市名字%]#500#铁石</t>
-  </si>
-  <si>
     <t>新主线野马3画师3</t>
   </si>
   <si>
@@ -460,9 +386,6 @@
     <t>0#击败五队沙漠兄弟会的游荡队伍后前往[%str_val:布告城市名字%]#5</t>
   </si>
   <si>
-    <t>0#Defeat 5 Desert Brotherhood squads and head to [%str_val:布告城市名字%]#5</t>
-  </si>
-  <si>
     <t>新主线野马4</t>
   </si>
   <si>
@@ -475,9 +398,6 @@
     <t>4#收集200玉石交给野马王苍骐#200#玉石</t>
   </si>
   <si>
-    <t>4#Collect 200 Jade for Bahat, Sultan of the Akhal#200#玉石</t>
-  </si>
-  <si>
     <t>新主线雪狼1</t>
   </si>
   <si>
@@ -488,9 +408,6 @@
   </si>
   <si>
     <t>0#说服封凛代表雪狼部落签字#1</t>
-  </si>
-  <si>
-    <t>0#Persuade Ruha of the Dhib to sign the treaty#1</t>
   </si>
   <si>
     <t>新主线雪狼2</t>
@@ -506,10 +423,6 @@
 0#将剑豪带去封凛处比试#1</t>
   </si>
   <si>
-    <t>0#Seek out the Swordmaster in Limestone Village#1##大雪山:11303,3799:100|雪山剑豪
-0#Take the Swordmaster to a duel with Ruha#1</t>
-  </si>
-  <si>
     <t>新主线雪狼3</t>
   </si>
   <si>
@@ -522,9 +435,6 @@
     <t>0#在冰谷附近东北找到一座冰川，并在不受伤的情况下击败里面的怪物#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
   </si>
   <si>
-    <t>0#Locate a glacier at the northeast edge of Frost Valley. Defeat the monsters within without getting hurt.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
-  </si>
-  <si>
     <t>新主线毒蝎1</t>
   </si>
   <si>
@@ -537,9 +447,6 @@
     <t>0#说服阿曼莎代表毒蝎部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Rebiya to sign on behalf of the Dakn#1</t>
-  </si>
-  <si>
     <t>新主线毒蝎2</t>
   </si>
   <si>
@@ -552,9 +459,6 @@
     <t>0#前往半月山集市寻找古达#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
   </si>
   <si>
-    <t>0#Find Jihan in the Halfmoon Hills Bazaar#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
-  </si>
-  <si>
     <t>新主线毒蝎3</t>
   </si>
   <si>
@@ -567,9 +471,6 @@
     <t>0#调查古达的房子的线索#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
   </si>
   <si>
-    <t>0#Investigate Jihan's home#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
-  </si>
-  <si>
     <t>新主线毒蝎4</t>
   </si>
   <si>
@@ -582,9 +483,6 @@
     <t>0#找到古达并将弦萝带给阿曼莎#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
   </si>
   <si>
-    <t>0#Speak with Jihan and take Dahlia back to Rebiya#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
-  </si>
-  <si>
     <t>新主线毒蝎5</t>
   </si>
   <si>
@@ -606,9 +504,6 @@
     <t>0#说服汗卢达代表蛮牛部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Ludo Khan of the Thur to sign the treaty#1</t>
-  </si>
-  <si>
     <t>新主线蛮牛2</t>
   </si>
   <si>
@@ -621,9 +516,6 @@
     <t>0#在各地寻找线索#1</t>
   </si>
   <si>
-    <t>0#Search for clues#1</t>
-  </si>
-  <si>
     <t>新主线蛮牛3</t>
   </si>
   <si>
@@ -636,9 +528,6 @@
     <t>0#解决白牛的归属权#1##大雪山:-9520,9619:500|主线白牛</t>
   </si>
   <si>
-    <t>0#Resolve the squabble over the yak#1|主线白牛</t>
-  </si>
-  <si>
     <t>新主线蛮牛4</t>
   </si>
   <si>
@@ -651,9 +540,6 @@
     <t>0#告诉汗卢达你经历的事情#1</t>
   </si>
   <si>
-    <t>0#Tell Ludo Khan your story#1</t>
-  </si>
-  <si>
     <t>新主线15</t>
   </si>
   <si>
@@ -666,9 +552,6 @@
     <t>0#击败五队四处入侵沙扎尔的火魔人战团并打听出有用的线索#5</t>
   </si>
   <si>
-    <t>0#Defeat five squads of the Ifrit invading Salzaar and gather any available information#5</t>
-  </si>
-  <si>
     <t>新主线16</t>
   </si>
   <si>
@@ -681,9 +564,6 @@
     <t>0#前往火魔之地寻找火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
-    <t>0#Journey to the Ifrit's domain and find the Ifrit Void Master's base#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
     <t>新主线17</t>
   </si>
   <si>
@@ -696,9 +576,6 @@
     <t>0#探索花圃并离开#1|trigger:大主线新版1309</t>
   </si>
   <si>
-    <t>0#Explore the garden and leave#1|trigger:大主线新版1309</t>
-  </si>
-  <si>
     <t>新主线18</t>
   </si>
   <si>
@@ -711,9 +588,6 @@
     <t>0#前往火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
-    <t>0#Return to the Fire Barracks to speak with the Ifrit Void Master#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
     <t>新主线19</t>
   </si>
   <si>
@@ -729,9 +603,6 @@
     <t>0#击败霍翎#1</t>
   </si>
   <si>
-    <t>0#Defeat Olum#1</t>
-  </si>
-  <si>
     <t>新主线千年前</t>
   </si>
   <si>
@@ -742,9 +613,6 @@
   </si>
   <si>
     <t>0#弄清楚自己身处何处#1</t>
-  </si>
-  <si>
-    <t>0#Figure out where you are#1</t>
   </si>
   <si>
     <t>新主线千年前1</t>
@@ -760,10 +628,6 @@
 0#找到阿力#1</t>
   </si>
   <si>
-    <t>0#Find Little Hewez#1
-0#Find Ali#1</t>
-  </si>
-  <si>
     <t>新主线千年前2</t>
   </si>
   <si>
@@ -776,9 +640,6 @@
     <t>0#运送栅栏#1|木工</t>
   </si>
   <si>
-    <t>0#Transport the fence#1|木工</t>
-  </si>
-  <si>
     <t>新主线千年前3</t>
   </si>
   <si>
@@ -791,9 +652,6 @@
     <t>0#在树林里为她找到三颗发光的蘑菇#3</t>
   </si>
   <si>
-    <t>0#Find three glowing mushrooms for her in the woods#3</t>
-  </si>
-  <si>
     <t>新主线千年前4</t>
   </si>
   <si>
@@ -804,9 +662,6 @@
   </si>
   <si>
     <t>0#前往河岸保护大河女神#1|新主线结局大河女神河边</t>
-  </si>
-  <si>
-    <t>0#Protect the River Goddess along the riverbank#1|新主线结局大河女神河边</t>
   </si>
   <si>
     <t>新主线20</t>
@@ -822,10 +677,6 @@
 0#击败黑火#1</t>
   </si>
   <si>
-    <t>0#Return to the Ifrit Void Master's base and find the portal to the realm of Obsidian Flame#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
-0#Defeat the Obsidian Flame#1</t>
-  </si>
-  <si>
     <t>Covil do Ifrit</t>
   </si>
   <si>
@@ -1107,6 +958,155 @@
   </si>
   <si>
     <t>Você desperta das memórias de mil anos atrás, já ciente da verdadeira identidade por trás das cortinas - a Chama Obsidiana, Todas as contradições e conflitos são manipulados por suas mãos; e você, junto com Ilayda, são as únicas pessoas capazes de derrotá-la. É hora de entender tudo e restaurar a ordem em Salzaar!</t>
+  </si>
+  <si>
+    <t>0#Alcance o nível 3#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Malak perto do Vazio de Lava Pāhoehoe#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
+0#Derrote o Ifrit#1</t>
+  </si>
+  <si>
+    <t>0#Aguarde Isra entrar em contato#1</t>
+  </si>
+  <si>
+    <t>0#Encontre as ruínas do templo no Deserto Ocidental de Docana#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
+  </si>
+  <si>
+    <t>0#Encontre Isra#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
+  </si>
+  <si>
+    <t>0#Desvende os segredos do Ifrit e da Deusa do Rio#1|大河神庙银珊</t>
+  </si>
+  <si>
+    <t>0#Aguarde 7 dias antes de seguir para os Penhascos de Umbra#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
+  </si>
+  <si>
+    <t>0#Explore a base do Ifrit#1|新主线火魔结界银珊</t>
+  </si>
+  <si>
+    <t>0#Pense em uma maneira de sair do domínio do Ifrit#1|不知名火魔</t>
+  </si>
+  <si>
+    <t>0#Coletou pistas#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
+  </si>
+  <si>
+    <t>0#Derrote três esquadrões de Ifrit#3</t>
+  </si>
+  <si>
+    <t>0#Verifique o rio no Vale da Lua Gêmea#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
+0#Verifique o rio nos Penhascos de Umbra#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
+0#Verifique o rio em Rocha Chorosa#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
+  </si>
+  <si>
+    <t>0#Avance com Ilayda para negociar com o Mestre do Vazio Ifrit#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
+  </si>
+  <si>
+    <t>0#Persuadir as cinco tribos a assinar um tratado#5</t>
+  </si>
+  <si>
+    <t>0#Persuadir Husnu dos Nasir a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Recupere o Cristal Sangue Negro para Husnu#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Prossiga para o Vale dos Caçadores e entregue o Cristal Sangue Negro para os Homem-Besta#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Conquiste as outras quatro tribos#4</t>
+  </si>
+  <si>
+    <t>0#Persuadir Bahat dos Akhal a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Conquiste os Dakn#1</t>
+  </si>
+  <si>
+    <t>0#Vá para a Fortaleza de Pedra Vermelha, o Bazar Dourado e o Bazar Sino de Camelo e coloque avisos recrutando artistas habilidosos que possam pintar um retrato#1
+4#Dê o quadro para Bahat#1#银珊画像</t>
+  </si>
+  <si>
+    <t>4#Colete 8000 Utar e leve para [%str_val:布告城市名字%]#8000#金钱</t>
+  </si>
+  <si>
+    <t>4#Colete 1500 Madeiras e leve para [%str_val:布告城市名字%]#1500#木材
+4#Colete 500 Pedras de Ferro e leve para [%str_val:布告城市名字%]#500#铁石</t>
+  </si>
+  <si>
+    <t>0#Derrote 5 esquadrões da Irmandade do Deserto e vá para [%str_val:布告城市名字%]#5</t>
+  </si>
+  <si>
+    <t>4#Colete 200 Jades para Bahat, Sultão dos Akhal#200#玉石</t>
+  </si>
+  <si>
+    <t>0#Persuadir Ruha dos Dhib a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Procure o Mestre das Espadas na Vila de Calcário#1##大雪山:11303,3799:100|雪山剑豪
+0#Leve o Mestre das Espadas para um duelo com Ruha#1</t>
+  </si>
+  <si>
+    <t>0#Localize uma geleira na borda nordeste do Vale da Geada. Derrote os monstros dentro sem se machucar.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
+  </si>
+  <si>
+    <t>0#Persuadir Rebiya a assinar em nome dos Dakn#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Jihan no Bazar das Colinas da Meia Lua#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
+  </si>
+  <si>
+    <t>0#Investigue a casa de Jihan#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
+  </si>
+  <si>
+    <t>0#Converse com Jihan e leve Dahlia de volta para Rebiya#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
+  </si>
+  <si>
+    <t>0#Persuadir Ludo Khan dos Thur a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Procure por pistas#1</t>
+  </si>
+  <si>
+    <t>0#Resolva a disputa sobre o Yak#1|主线白牛</t>
+  </si>
+  <si>
+    <t>0#Conte a sua história para Ludo Khan#1</t>
+  </si>
+  <si>
+    <t>0#Derrote cinco esquadrões dos Ifrit que estão invadindo Salzaar e reúna qualquer informação disponível#5</t>
+  </si>
+  <si>
+    <t>0#Viaje para o domínio dos Ifrit e encontre a base do Mestre do Vazio Ifrit#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
+    <t>0#Explore o jardim e vá embora#1|trigger:大主线新版1309</t>
+  </si>
+  <si>
+    <t>0#Volte para os Alojamentos de Fogo para falar com o Mestre do Vácuo Ifrit#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
+    <t>0#Derrote Olum#1</t>
+  </si>
+  <si>
+    <t>0#Descubra onde você está#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o Pequeno Hewez#1
+0#Encontre Ali#1</t>
+  </si>
+  <si>
+    <t>0#Transporte a cerca#1|木工</t>
+  </si>
+  <si>
+    <t>0#Encontre três cogumelos brilhantes para ela na floresta#3</t>
+  </si>
+  <si>
+    <t>0#Proteja a Deusa do Rio ao longo da margem do rio#1|新主线结局大河女神河边</t>
+  </si>
+  <si>
+    <t>0#Volte para a base do Mestre do Vazio Ifrit e encontre o portal para o reino da Chama Obsidiana#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
+0#Derrote a Chama Obsidiana#1</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="I47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1712,1141 +1712,1141 @@
         <v>12</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="189">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="216">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="162">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="202.5">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="162">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="81">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="270">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="229.5">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="202.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="162">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="162">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="121.5">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="256.5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="202.5">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="243">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="202.5">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="405">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="202.5">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="256.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="202.5">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="108">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="94.5">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="175.5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="148.5">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="202.5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="162">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="121.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="94.5">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="108">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="81">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="121.5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="94.5">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="175.5">
       <c r="A22" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="108">
+        <v>93</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="94.5">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="189">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="108">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="94.5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="81">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="108">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="94.5">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="148.5">
       <c r="A28" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="189">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="108">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="81">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="148.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="135">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="148.5">
       <c r="A32" s="2" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="229.5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="189">
       <c r="A33" s="2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="175.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="148.5">
       <c r="A34" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="108">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="94.5">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="189">
+    </row>
+    <row r="36" spans="1:9" ht="162">
       <c r="A36" s="2" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="G36" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="229.5">
+    </row>
+    <row r="37" spans="1:9" ht="189">
       <c r="A37" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="G37" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="202.5">
+    </row>
+    <row r="38" spans="1:9" ht="162">
       <c r="A38" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="D38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G38" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.5">
+    </row>
+    <row r="39" spans="1:9" ht="364.5">
       <c r="A39" s="2" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G39" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="175.5">
       <c r="A40" s="2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="D40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="108">
+    </row>
+    <row r="41" spans="1:9" ht="94.5">
       <c r="A41" s="2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G41" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="162">
+    </row>
+    <row r="42" spans="1:9" ht="148.5">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G42" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="175.5">
+    </row>
+    <row r="43" spans="1:9" ht="148.5">
       <c r="A43" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="G43" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="135">
+    </row>
+    <row r="44" spans="1:9" ht="108">
       <c r="A44" s="2" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="G44" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="54">
       <c r="A45" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="G45" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="81">
+    </row>
+    <row r="46" spans="1:9" ht="67.5">
       <c r="A46" s="2" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="121.5">
+    </row>
+    <row r="47" spans="1:9" ht="108">
       <c r="A47" s="2" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="G47" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="135">
+    </row>
+    <row r="48" spans="1:9" ht="108">
       <c r="A48" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G48" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="297">
       <c r="A49" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:9">
